--- a/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="490">
   <si>
     <t>Blackout_DugInDeep.contractName</t>
   </si>
@@ -46,6 +46,9 @@
     <t>The loss of that data cache and relay station is bad news for {TEAM_EMP.FactionDef.ShortName}. Let's figure out our next step.</t>
   </si>
   <si>
+    <t>Потеря кэша данных и ретрансляционной станции - плохая новость для {TEAM_EMP.FactionDef.ShortName}. Давайте разберемся с нашим следующим шагом.</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
@@ -55,7 +58,7 @@
     <t>Blackout_DugInDeep.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">*** DETECTED INCOMING FORCES OF UNKNOWN ORIGIN ****  ...  *** RED ALERT STATUS ***</t>
+    <t>*** DETECTED INCOMING FORCES OF UNKNOWN ORIGIN **** ... *** RED ALERT STATUS ***</t>
   </si>
   <si>
     <t>*** ОБНАРУЖЕНЫ ПРИБЛИЖАЮЩИЕСЯ НЕОПОЗНАННЫЕ ЦЕЛИ **** ... *** БОЕВАЯ ТРЕВОГА! ***</t>
@@ -97,6 +100,9 @@
     <t>Is everything ok down there, Commander? Looks like those turrets were hacked. Something is definitely not right here. Let's move on to the next base.</t>
   </si>
   <si>
+    <t>Внизу все в порядке, командир? Похоже, эти турели взломали. Что-то здесь точно не так. Переходим к следующей базе.</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.dialogueList7.dialogueContent0.words</t>
   </si>
   <si>
@@ -175,7 +181,7 @@
     <t>Destroy the lance that is invading</t>
   </si>
   <si>
-    <t>Уничтожьте вторгающееся копьё</t>
+    <t>Уничтожьте вторгающиеся силы врага</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.objectiveList3.title</t>
@@ -184,7 +190,7 @@
     <t>Destroy invading lance</t>
   </si>
   <si>
-    <t>Уничтожить вторгшееся копьё</t>
+    <t>Уничтожить отряд вторжения</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.objectiveList4.description</t>
@@ -355,6 +361,9 @@
     <t>It's me again, Commander! I'm going to try and activate the turrets... ***BANG***</t>
   </si>
   <si>
+    <t>Это снова я, командир! Я собираюсь попробовать включить турели... *** БАХ ***</t>
+  </si>
+  <si>
     <t>Blackout_HeavyStatic.dialogueList9.dialogueContent1.words</t>
   </si>
   <si>
@@ -427,7 +436,7 @@
     <t>Destroy the lance that is occupying the base</t>
   </si>
   <si>
-    <t>Уничтожьте копье, занимающее базу</t>
+    <t>Уничтожьте отряд, удерживающий базу</t>
   </si>
   <si>
     <t>Blackout_HeavyStatic.objectiveList4.title</t>
@@ -436,12 +445,15 @@
     <t>Destroy occupying lance</t>
   </si>
   <si>
-    <t>Уничтожить оккупирующее копьё</t>
+    <t>Уничтожить отряд захватчиков</t>
   </si>
   <si>
     <t>Blackout_HeavyStatic.objectiveList5.description</t>
   </si>
   <si>
+    <t>Защитить взломанные турели на базе браво</t>
+  </si>
+  <si>
     <t>Blackout_HeavyStatic.objectiveList5.title</t>
   </si>
   <si>
@@ -613,6 +625,9 @@
     <t>Investigate the Biolab</t>
   </si>
   <si>
+    <t>Исследуйте Биолаб</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.objectiveList1.description</t>
   </si>
   <si>
@@ -667,7 +682,7 @@
     <t>One of our bio research stations has gone dark in the {TGT_SYSTEM.name} system. We've not sure why but {TEAM_TAR.FactionDef.Demonym} affiliated groups have been asking about purchasing some specific supplies we also use in that system. Investigate and find out what's going on.</t>
   </si>
   <si>
-    <t>One of our bio research stations has gone dark in the {TGT_SYSTEM.name} system. We've not sure why but {TEAM_TAR.FactionDef.Name} affiliated groups have been asking about purchasing some specific supplies we also use in that system. Investigate and find out what's going on.</t>
+    <t>Одна из наших био-исследовательских станций в системе {TGT_SYSTEM.name} прекратила связь. Мы не знаем причину, однако не так давно влиятельные люди из {TEAM_TAR.FactionDef.Name} выражали желание заполучить ценные материалы, которыми мы сами там пользуемся. Отправляйтесь туда и выясните, что там происходит.</t>
   </si>
   <si>
     <t>DuoDuel_AtHighNoon.contractName</t>
@@ -685,6 +700,9 @@
     <t>These guys aren't inexperienced so watch out and good luck, Commander.</t>
   </si>
   <si>
+    <t>У этих ребят есть опыт, так что будьте осторожны и удачи, командир.</t>
+  </si>
+  <si>
     <t>DuoDuel_AtHighNoon.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -697,6 +715,9 @@
     <t>These brothers are a lot better than we gave them credit for.</t>
   </si>
   <si>
+    <t>Эти братья намного лучше, чем мы думали.</t>
+  </si>
+  <si>
     <t>DuoDuel_AtHighNoon.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
@@ -724,6 +745,9 @@
     <t>Our bases in {TGT_SYSTEM.name} have been plagued by the local Jarman brothers. With support from {TEAM_TAR.FactionDef.ShortName} they continually raid our supplies and we've had enough. Using their overconfidence against them we've baited them into accepting a duel with us. Can you help us out?</t>
   </si>
   <si>
+    <t>Наши базы в {TGT_SYSTEM.name} подверглись нападению местных братьев Джарман. При поддержке {TEAM_TAR.FactionDef.ShortName} они постоянно грабят наши припасы, и с нас достаточно. Используя их самоуверенность, мы заставили их согласиться на дуэль с нами. Вы можете нам помочь?</t>
+  </si>
+  <si>
     <t>DuoDuel_DoubleTrouble.contractName</t>
   </si>
   <si>
@@ -739,6 +763,9 @@
     <t>Ready up, Commander.</t>
   </si>
   <si>
+    <t>Все готово, командир.</t>
+  </si>
+  <si>
     <t>DuoDuel_DoubleTrouble.dialogueList0.dialogueContent1.words</t>
   </si>
   <si>
@@ -763,6 +790,9 @@
     <t>This isn't how it should have turned out, Commander. Let's get going. Nothing more we can do.</t>
   </si>
   <si>
+    <t>Все должно ьыло быть не так, командир. Давайте продолжим. Мы больше ничего не можем сделать.</t>
+  </si>
+  <si>
     <t>DuoDuel_DoubleTrouble.longDescription</t>
   </si>
   <si>
@@ -805,6 +835,9 @@
     <t>The crowd is cheering for you two, Commander.</t>
   </si>
   <si>
+    <t>Толпа болеет за вас двоих, командир.</t>
+  </si>
+  <si>
     <t>DuoDuel_FestiveCouple.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -826,12 +859,18 @@
     <t>Let's make this a good show but make no mistake. We're winning this!</t>
   </si>
   <si>
+    <t>Давайте устроим хорошее шоу, но без глупостей. Мы выиграем!</t>
+  </si>
+  <si>
     <t>DuoDuel_FestiveCouple.longDescription</t>
   </si>
   <si>
     <t>This actually sounds like fun! I'll have you both on coms the entire time but the rest of the crew will be cheering you on from the crowd. Let's do this, Commander.</t>
   </si>
   <si>
+    <t>Звучит весело! Я буду на связи с вами все время, но остальная часть команды будет подбадривать вас из толпы. Давайте сделаем это, командир.</t>
+  </si>
+  <si>
     <t>DuoDuel_FestiveCouple.objectiveList0.title</t>
   </si>
   <si>
@@ -856,12 +895,18 @@
     <t>Last Minute Replacements</t>
   </si>
   <si>
+    <t>Замены в последнюю минуту</t>
+  </si>
+  <si>
     <t>DuoDuel_LastMinuteReplacements.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
     <t>Looks like those expert duelists are waiting for you. Good luck, Commander.</t>
   </si>
   <si>
+    <t>Похоже, тебя ждут опытные дуэлянты. Удачи, командир.</t>
+  </si>
+  <si>
     <t>DuoDuel_LastMinuteReplacements.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -877,6 +922,9 @@
     <t>Let's get you out of here, Commander. It couldn't be helped.</t>
   </si>
   <si>
+    <t>Давай вытащим тебя отсюда, командир. Ничего не поделаешь.</t>
+  </si>
+  <si>
     <t>DuoDuel_LastMinuteReplacements.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
@@ -916,18 +964,27 @@
     <t>Words Hurt</t>
   </si>
   <si>
+    <t>Слова ранят</t>
+  </si>
+  <si>
     <t>DuoDuel_WordsHurt.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
     <t>The duelists are out there on the other side of the arena. Good luck, Commander.</t>
   </si>
   <si>
+    <t>Дуэлянты на другой стороне арены. Удачи, командир.</t>
+  </si>
+  <si>
     <t>DuoDuel_WordsHurt.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
     <t>There we go. Issue settled. Back to the dropship, Commander.</t>
   </si>
   <si>
+    <t>Вот так. Вопрос решен. Возвращайтесь к десантному кораблю, командир.</t>
+  </si>
+  <si>
     <t>DuoDuel_WordsHurt.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
@@ -946,7 +1003,7 @@
     <t>I just don't know, Commander. When people say they want to 'fight' allegations it's not meant to be a real fight. This {TEAM_TAR.FactionDef.Demonym} Governor is crazy. Let's uphold the truth... for a price.</t>
   </si>
   <si>
-    <t>I just don't know, Commander. When people say they want to 'fight' allegations it's not meant to be a real fight. This {TEAM_TAR.FactionDef.Name} Governor is crazy. Let's uphold the truth... for a price.</t>
+    <t>Я не знаю, командир. Когда люди говорят, что хотят «бороться» с обвинениями, это не значает настоящую борьбу. Этот губернатор {TEAM_TAR.FactionDef.Name} псих. Давайте отстаивать правду ... за свою цену.</t>
   </si>
   <si>
     <t>DuoDuel_WordsHurt.objectiveList0.title</t>
@@ -973,6 +1030,9 @@
     <t>Our employers have won this every year for the past four years. No pressure, Commander.</t>
   </si>
   <si>
+    <t>Последние четрые года подряд наши работодатели побеждали. Никакого давления, командир.</t>
+  </si>
+  <si>
     <t>DuoDuel_YearlyTussle.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -985,6 +1045,9 @@
     <t>Our employers can't expect to win this every year I suppose.</t>
   </si>
   <si>
+    <t>Полагаю, наши наниматели понимают, что не смогут выигрывать вечно.</t>
+  </si>
+  <si>
     <t>DuoDuel_YearlyTussle.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
@@ -1153,6 +1216,9 @@
     <t>That's the one, Commander. Take him out.</t>
   </si>
   <si>
+    <t>Это тот, командир. Убери его.</t>
+  </si>
+  <si>
     <t>SoloDuel_ChallengeAccepted.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -1168,18 +1234,27 @@
     <t>We're coming in to pick you up fast, Commander. Hold on. We'll sort out the political fallout from this later.</t>
   </si>
   <si>
+    <t>Мы спешим за вами, командир. Держитесь. С политическими последствиями разберемся позже.</t>
+  </si>
+  <si>
     <t>SoloDuel_ChallengeAccepted.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
     <t>I know they said they were going to send a proxy but, a lowly Merc? What a waste of a perfectly good duel.</t>
   </si>
   <si>
+    <t>Я знаю, что они сказали, что собираются отправить доверенное лицо, но наемника? Какая трата прекрасной дуэли.</t>
+  </si>
+  <si>
     <t>SoloDuel_ChallengeAccepted.longDescription</t>
   </si>
   <si>
     <t>No ammo left? What kind of idiot set up their supply lines. Let's clean this duel up and cash in, Commander.</t>
   </si>
   <si>
+    <t>Боеприпасы кончились? Что за идиот прокладывал линии снабжения. Командир, давайте победим в дуэли и заработаем денег.</t>
+  </si>
+  <si>
     <t>SoloDuel_ChallengeAccepted.objectiveList0.title</t>
   </si>
   <si>
@@ -1195,6 +1270,9 @@
     <t>Over the past few weeks we've been engaged in small stage skirmishes with {TEAM_TAR.FactionDef.ShortName} in and around {TGT_SYSTEM.name}. The company commander must feel they can't continue their campaign because they've requested a duel to claim this local forward base. Little do they know that we've recently run out of supplies so we've very much taken them up on their offer. This is where you come in. We need to you win this for us, Commander.</t>
   </si>
   <si>
+    <t xml:space="preserve">За последние несколько недель мы участвовали в небольших стычках с {TEAM_TAR.FactionDef.ShortName} внутри и вокруг {TGT_SYSTEM.name}. Их командир  понимает, что они не могут продолжать свою кампанию, потому они запросили дуэль, чтобы захватить эту местную передовую базу. Откуда им было знать, что у нас недавно закончились запасы, поэтому нам выгоднее это предложение. И вот тут ваш выход. Нам нужно, чтобы вы выиграли для нас, командир.</t>
+  </si>
+  <si>
     <t>SoloDuel_CorneredRevenge.contractName</t>
   </si>
   <si>
@@ -1214,6 +1292,9 @@
   </si>
   <si>
     <t>I'm glad you got out of that in one piece, Commander. Victories like this feel hollow though.</t>
+  </si>
+  <si>
+    <t>Я рад, что вы вышли из этого целым, командир. Однако такие победы кажутся пустыми.</t>
   </si>
   <si>
     <t>SoloDuel_CorneredRevenge.dialogueList2.dialogueContent0.words</t>
@@ -1260,18 +1341,27 @@
     <t>Life Lesson</t>
   </si>
   <si>
+    <t>Жизненый урок</t>
+  </si>
+  <si>
     <t>SoloDuel_LifeLesson.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
     <t>There he is, Commander.</t>
   </si>
   <si>
+    <t>Вот он, командир.</t>
+  </si>
+  <si>
     <t>SoloDuel_LifeLesson.dialogueList0.dialogueContent1.words</t>
   </si>
   <si>
     <t>This might be a real easy job but it's a job all the same. Knock him about a bit then finish things up. His Dad will be happier than he'll be.</t>
   </si>
   <si>
+    <t>Это может быть легкая работа, но все равно это работа. Поколотите его, а затем закончите дело. Его отец будет счастливее, чем он.</t>
+  </si>
+  <si>
     <t>SoloDuel_LifeLesson.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -1287,18 +1377,27 @@
     <t>That was unexpected, Commander. I don't think his Dad will pay up since we've just subjected him to a few years of bragging.</t>
   </si>
   <si>
+    <t>Это было неожиданно, командир. Я не думаю, что его отец заплатит, так как мы обличили его двухлетнее хвастовство.</t>
+  </si>
+  <si>
     <t>SoloDuel_LifeLesson.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
     <t>So you're the rubbish my father is sending to train against? Just like the other servants... pitiful.</t>
   </si>
   <si>
+    <t>Так ты мусор, что прислал против меня отец? Как и другие слуги... ничтожество.</t>
+  </si>
+  <si>
     <t>SoloDuel_LifeLesson.longDescription</t>
   </si>
   <si>
     <t>I have to hand it to this guy. At least he cares enough about his son to teach him a thing or two. Even if that means a knock on the head... or two.</t>
   </si>
   <si>
+    <t>Отдать должное этому парню. По крайней мере, он достаточно заботится о своем сыне, чтобы научить его кое-чему. Даже если это означает удар по голове... или два.</t>
+  </si>
+  <si>
     <t>SoloDuel_LifeLesson.objectiveList0.title</t>
   </si>
   <si>
@@ -1323,6 +1422,9 @@
     <t>Proxy War</t>
   </si>
   <si>
+    <t>Доверенная война</t>
+  </si>
+  <si>
     <t>SoloDuel_ProxyWar.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
@@ -1338,16 +1440,25 @@
     <t>Job done and we've saved some stuck up Governor their job. Time to get some rest, Commander.</t>
   </si>
   <si>
+    <t>Работа сделана и мы спасли некоторых заносчивых губернаторов. Пора немного отдохнуть, командир.</t>
+  </si>
+  <si>
     <t>SoloDuel_ProxyWar.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
     <t>Well, they did say they weren't going to acknowledge a loss. See how that works out. Let's get you back to the dropship, Commander.</t>
   </si>
   <si>
+    <t>Ну, они сказали, что не собирались признавать потерю. Посмотрим что из этого выйдет. Возвращайтесь к десантному кораблю, командир.</t>
+  </si>
+  <si>
     <t>SoloDuel_ProxyWar.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
     <t>In the name of {TEAM_TAR.FactionDef.ShortName} I hereby challenge you to this war for {TGT_SYSTEM.name}! To the victor the spoils!</t>
+  </si>
+  <si>
+    <t>От имени {TEAM_TAR.FactionDef.ShortName} я призываю вас на войну за {TGT_SYSTEM.name}! Победителю достаются трофеи!</t>
   </si>
   <si>
     <t>SoloDuel_ProxyWar.longDescription</t>
@@ -1415,8 +1526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1719,13 +1829,13 @@
   <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C193" sqref="A1:C193"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
+    <col min="3" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1769,2086 +1879,2086 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="174" s="4" customFormat="1">
-      <c r="A174" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>406</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="174" s="3" customFormat="1">
+      <c r="A174" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>409</v>
+        <v>435</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="191" s="4" customFormat="1">
-      <c r="A191" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>446</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="191" s="3" customFormat="1">
+      <c r="A191" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
   <si>
     <t>Blackout_DugInDeep.contractName</t>
   </si>
@@ -46,9 +46,6 @@
     <t>The loss of that data cache and relay station is bad news for {TEAM_EMP.FactionDef.ShortName}. Let's figure out our next step.</t>
   </si>
   <si>
-    <t>Потеря кэша данных и ретрансляционной станции - плохая новость для {TEAM_EMP.FactionDef.ShortName}. Давайте разберемся с нашим следующим шагом.</t>
-  </si>
-  <si>
     <t>Blackout_DugInDeep.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
@@ -58,7 +55,7 @@
     <t>Blackout_DugInDeep.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t>*** DETECTED INCOMING FORCES OF UNKNOWN ORIGIN **** ... *** RED ALERT STATUS ***</t>
+    <t xml:space="preserve">*** DETECTED INCOMING FORCES OF UNKNOWN ORIGIN ****  ...  *** RED ALERT STATUS ***</t>
   </si>
   <si>
     <t>*** ОБНАРУЖЕНЫ ПРИБЛИЖАЮЩИЕСЯ НЕОПОЗНАННЫЕ ЦЕЛИ **** ... *** БОЕВАЯ ТРЕВОГА! ***</t>
@@ -100,9 +97,6 @@
     <t>Is everything ok down there, Commander? Looks like those turrets were hacked. Something is definitely not right here. Let's move on to the next base.</t>
   </si>
   <si>
-    <t>Внизу все в порядке, командир? Похоже, эти турели взломали. Что-то здесь точно не так. Переходим к следующей базе.</t>
-  </si>
-  <si>
     <t>Blackout_DugInDeep.dialogueList7.dialogueContent0.words</t>
   </si>
   <si>
@@ -181,7 +175,7 @@
     <t>Destroy the lance that is invading</t>
   </si>
   <si>
-    <t>Уничтожьте вторгающиеся силы врага</t>
+    <t>Уничтожьте вторгающееся копьё</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.objectiveList3.title</t>
@@ -190,7 +184,7 @@
     <t>Destroy invading lance</t>
   </si>
   <si>
-    <t>Уничтожить отряд вторжения</t>
+    <t>Уничтожить вторгшееся копьё</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.objectiveList4.description</t>
@@ -361,9 +355,6 @@
     <t>It's me again, Commander! I'm going to try and activate the turrets... ***BANG***</t>
   </si>
   <si>
-    <t>Это снова я, командир! Я собираюсь попробовать включить турели... *** БАХ ***</t>
-  </si>
-  <si>
     <t>Blackout_HeavyStatic.dialogueList9.dialogueContent1.words</t>
   </si>
   <si>
@@ -436,7 +427,7 @@
     <t>Destroy the lance that is occupying the base</t>
   </si>
   <si>
-    <t>Уничтожьте отряд, удерживающий базу</t>
+    <t>Уничтожьте копье, занимающее базу</t>
   </si>
   <si>
     <t>Blackout_HeavyStatic.objectiveList4.title</t>
@@ -445,15 +436,12 @@
     <t>Destroy occupying lance</t>
   </si>
   <si>
-    <t>Уничтожить отряд захватчиков</t>
+    <t>Уничтожить оккупирующее копьё</t>
   </si>
   <si>
     <t>Blackout_HeavyStatic.objectiveList5.description</t>
   </si>
   <si>
-    <t>Защитить взломанные турели на базе браво</t>
-  </si>
-  <si>
     <t>Blackout_HeavyStatic.objectiveList5.title</t>
   </si>
   <si>
@@ -625,9 +613,6 @@
     <t>Investigate the Biolab</t>
   </si>
   <si>
-    <t>Исследуйте Биолаб</t>
-  </si>
-  <si>
     <t>Blackout_UnknownCause.objectiveList1.description</t>
   </si>
   <si>
@@ -682,7 +667,7 @@
     <t>One of our bio research stations has gone dark in the {TGT_SYSTEM.name} system. We've not sure why but {TEAM_TAR.FactionDef.Demonym} affiliated groups have been asking about purchasing some specific supplies we also use in that system. Investigate and find out what's going on.</t>
   </si>
   <si>
-    <t>Одна из наших био-исследовательских станций в системе {TGT_SYSTEM.name} прекратила связь. Мы не знаем причину, однако не так давно влиятельные люди из {TEAM_TAR.FactionDef.Name} выражали желание заполучить ценные материалы, которыми мы сами там пользуемся. Отправляйтесь туда и выясните, что там происходит.</t>
+    <t>One of our bio research stations has gone dark in the {TGT_SYSTEM.name} system. We've not sure why but {TEAM_TAR.FactionDef.Name} affiliated groups have been asking about purchasing some specific supplies we also use in that system. Investigate and find out what's going on.</t>
   </si>
   <si>
     <t>DuoDuel_AtHighNoon.contractName</t>
@@ -700,9 +685,6 @@
     <t>These guys aren't inexperienced so watch out and good luck, Commander.</t>
   </si>
   <si>
-    <t>У этих ребят есть опыт, так что будьте осторожны и удачи, командир.</t>
-  </si>
-  <si>
     <t>DuoDuel_AtHighNoon.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -715,9 +697,6 @@
     <t>These brothers are a lot better than we gave them credit for.</t>
   </si>
   <si>
-    <t>Эти братья намного лучше, чем мы думали.</t>
-  </si>
-  <si>
     <t>DuoDuel_AtHighNoon.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
@@ -745,9 +724,6 @@
     <t>Our bases in {TGT_SYSTEM.name} have been plagued by the local Jarman brothers. With support from {TEAM_TAR.FactionDef.ShortName} they continually raid our supplies and we've had enough. Using their overconfidence against them we've baited them into accepting a duel with us. Can you help us out?</t>
   </si>
   <si>
-    <t>Наши базы в {TGT_SYSTEM.name} подверглись нападению местных братьев Джарман. При поддержке {TEAM_TAR.FactionDef.ShortName} они постоянно грабят наши припасы, и с нас достаточно. Используя их самоуверенность, мы заставили их согласиться на дуэль с нами. Вы можете нам помочь?</t>
-  </si>
-  <si>
     <t>DuoDuel_DoubleTrouble.contractName</t>
   </si>
   <si>
@@ -763,9 +739,6 @@
     <t>Ready up, Commander.</t>
   </si>
   <si>
-    <t>Все готово, командир.</t>
-  </si>
-  <si>
     <t>DuoDuel_DoubleTrouble.dialogueList0.dialogueContent1.words</t>
   </si>
   <si>
@@ -790,9 +763,6 @@
     <t>This isn't how it should have turned out, Commander. Let's get going. Nothing more we can do.</t>
   </si>
   <si>
-    <t>Все должно ьыло быть не так, командир. Давайте продолжим. Мы больше ничего не можем сделать.</t>
-  </si>
-  <si>
     <t>DuoDuel_DoubleTrouble.longDescription</t>
   </si>
   <si>
@@ -835,9 +805,6 @@
     <t>The crowd is cheering for you two, Commander.</t>
   </si>
   <si>
-    <t>Толпа болеет за вас двоих, командир.</t>
-  </si>
-  <si>
     <t>DuoDuel_FestiveCouple.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -859,18 +826,12 @@
     <t>Let's make this a good show but make no mistake. We're winning this!</t>
   </si>
   <si>
-    <t>Давайте устроим хорошее шоу, но без глупостей. Мы выиграем!</t>
-  </si>
-  <si>
     <t>DuoDuel_FestiveCouple.longDescription</t>
   </si>
   <si>
     <t>This actually sounds like fun! I'll have you both on coms the entire time but the rest of the crew will be cheering you on from the crowd. Let's do this, Commander.</t>
   </si>
   <si>
-    <t>Звучит весело! Я буду на связи с вами все время, но остальная часть команды будет подбадривать вас из толпы. Давайте сделаем это, командир.</t>
-  </si>
-  <si>
     <t>DuoDuel_FestiveCouple.objectiveList0.title</t>
   </si>
   <si>
@@ -895,18 +856,12 @@
     <t>Last Minute Replacements</t>
   </si>
   <si>
-    <t>Замены в последнюю минуту</t>
-  </si>
-  <si>
     <t>DuoDuel_LastMinuteReplacements.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
     <t>Looks like those expert duelists are waiting for you. Good luck, Commander.</t>
   </si>
   <si>
-    <t>Похоже, тебя ждут опытные дуэлянты. Удачи, командир.</t>
-  </si>
-  <si>
     <t>DuoDuel_LastMinuteReplacements.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -922,9 +877,6 @@
     <t>Let's get you out of here, Commander. It couldn't be helped.</t>
   </si>
   <si>
-    <t>Давай вытащим тебя отсюда, командир. Ничего не поделаешь.</t>
-  </si>
-  <si>
     <t>DuoDuel_LastMinuteReplacements.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
@@ -964,27 +916,18 @@
     <t>Words Hurt</t>
   </si>
   <si>
-    <t>Слова ранят</t>
-  </si>
-  <si>
     <t>DuoDuel_WordsHurt.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
     <t>The duelists are out there on the other side of the arena. Good luck, Commander.</t>
   </si>
   <si>
-    <t>Дуэлянты на другой стороне арены. Удачи, командир.</t>
-  </si>
-  <si>
     <t>DuoDuel_WordsHurt.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
     <t>There we go. Issue settled. Back to the dropship, Commander.</t>
   </si>
   <si>
-    <t>Вот так. Вопрос решен. Возвращайтесь к десантному кораблю, командир.</t>
-  </si>
-  <si>
     <t>DuoDuel_WordsHurt.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
@@ -1003,7 +946,7 @@
     <t>I just don't know, Commander. When people say they want to 'fight' allegations it's not meant to be a real fight. This {TEAM_TAR.FactionDef.Demonym} Governor is crazy. Let's uphold the truth... for a price.</t>
   </si>
   <si>
-    <t>Я не знаю, командир. Когда люди говорят, что хотят «бороться» с обвинениями, это не значает настоящую борьбу. Этот губернатор {TEAM_TAR.FactionDef.Name} псих. Давайте отстаивать правду ... за свою цену.</t>
+    <t>I just don't know, Commander. When people say they want to 'fight' allegations it's not meant to be a real fight. This {TEAM_TAR.FactionDef.Name} Governor is crazy. Let's uphold the truth... for a price.</t>
   </si>
   <si>
     <t>DuoDuel_WordsHurt.objectiveList0.title</t>
@@ -1030,9 +973,6 @@
     <t>Our employers have won this every year for the past four years. No pressure, Commander.</t>
   </si>
   <si>
-    <t>Последние четрые года подряд наши работодатели побеждали. Никакого давления, командир.</t>
-  </si>
-  <si>
     <t>DuoDuel_YearlyTussle.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -1045,9 +985,6 @@
     <t>Our employers can't expect to win this every year I suppose.</t>
   </si>
   <si>
-    <t>Полагаю, наши наниматели понимают, что не смогут выигрывать вечно.</t>
-  </si>
-  <si>
     <t>DuoDuel_YearlyTussle.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
@@ -1216,9 +1153,6 @@
     <t>That's the one, Commander. Take him out.</t>
   </si>
   <si>
-    <t>Это тот, командир. Убери его.</t>
-  </si>
-  <si>
     <t>SoloDuel_ChallengeAccepted.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -1234,27 +1168,18 @@
     <t>We're coming in to pick you up fast, Commander. Hold on. We'll sort out the political fallout from this later.</t>
   </si>
   <si>
-    <t>Мы спешим за вами, командир. Держитесь. С политическими последствиями разберемся позже.</t>
-  </si>
-  <si>
     <t>SoloDuel_ChallengeAccepted.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
     <t>I know they said they were going to send a proxy but, a lowly Merc? What a waste of a perfectly good duel.</t>
   </si>
   <si>
-    <t>Я знаю, что они сказали, что собираются отправить доверенное лицо, но наемника? Какая трата прекрасной дуэли.</t>
-  </si>
-  <si>
     <t>SoloDuel_ChallengeAccepted.longDescription</t>
   </si>
   <si>
     <t>No ammo left? What kind of idiot set up their supply lines. Let's clean this duel up and cash in, Commander.</t>
   </si>
   <si>
-    <t>Боеприпасы кончились? Что за идиот прокладывал линии снабжения. Командир, давайте победим в дуэли и заработаем денег.</t>
-  </si>
-  <si>
     <t>SoloDuel_ChallengeAccepted.objectiveList0.title</t>
   </si>
   <si>
@@ -1270,9 +1195,6 @@
     <t>Over the past few weeks we've been engaged in small stage skirmishes with {TEAM_TAR.FactionDef.ShortName} in and around {TGT_SYSTEM.name}. The company commander must feel they can't continue their campaign because they've requested a duel to claim this local forward base. Little do they know that we've recently run out of supplies so we've very much taken them up on their offer. This is where you come in. We need to you win this for us, Commander.</t>
   </si>
   <si>
-    <t xml:space="preserve">За последние несколько недель мы участвовали в небольших стычках с {TEAM_TAR.FactionDef.ShortName} внутри и вокруг {TGT_SYSTEM.name}. Их командир  понимает, что они не могут продолжать свою кампанию, потому они запросили дуэль, чтобы захватить эту местную передовую базу. Откуда им было знать, что у нас недавно закончились запасы, поэтому нам выгоднее это предложение. И вот тут ваш выход. Нам нужно, чтобы вы выиграли для нас, командир.</t>
-  </si>
-  <si>
     <t>SoloDuel_CorneredRevenge.contractName</t>
   </si>
   <si>
@@ -1292,9 +1214,6 @@
   </si>
   <si>
     <t>I'm glad you got out of that in one piece, Commander. Victories like this feel hollow though.</t>
-  </si>
-  <si>
-    <t>Я рад, что вы вышли из этого целым, командир. Однако такие победы кажутся пустыми.</t>
   </si>
   <si>
     <t>SoloDuel_CorneredRevenge.dialogueList2.dialogueContent0.words</t>
@@ -1341,27 +1260,18 @@
     <t>Life Lesson</t>
   </si>
   <si>
-    <t>Жизненый урок</t>
-  </si>
-  <si>
     <t>SoloDuel_LifeLesson.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
     <t>There he is, Commander.</t>
   </si>
   <si>
-    <t>Вот он, командир.</t>
-  </si>
-  <si>
     <t>SoloDuel_LifeLesson.dialogueList0.dialogueContent1.words</t>
   </si>
   <si>
     <t>This might be a real easy job but it's a job all the same. Knock him about a bit then finish things up. His Dad will be happier than he'll be.</t>
   </si>
   <si>
-    <t>Это может быть легкая работа, но все равно это работа. Поколотите его, а затем закончите дело. Его отец будет счастливее, чем он.</t>
-  </si>
-  <si>
     <t>SoloDuel_LifeLesson.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -1377,27 +1287,18 @@
     <t>That was unexpected, Commander. I don't think his Dad will pay up since we've just subjected him to a few years of bragging.</t>
   </si>
   <si>
-    <t>Это было неожиданно, командир. Я не думаю, что его отец заплатит, так как мы обличили его двухлетнее хвастовство.</t>
-  </si>
-  <si>
     <t>SoloDuel_LifeLesson.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
     <t>So you're the rubbish my father is sending to train against? Just like the other servants... pitiful.</t>
   </si>
   <si>
-    <t>Так ты мусор, что прислал против меня отец? Как и другие слуги... ничтожество.</t>
-  </si>
-  <si>
     <t>SoloDuel_LifeLesson.longDescription</t>
   </si>
   <si>
     <t>I have to hand it to this guy. At least he cares enough about his son to teach him a thing or two. Even if that means a knock on the head... or two.</t>
   </si>
   <si>
-    <t>Отдать должное этому парню. По крайней мере, он достаточно заботится о своем сыне, чтобы научить его кое-чему. Даже если это означает удар по голове... или два.</t>
-  </si>
-  <si>
     <t>SoloDuel_LifeLesson.objectiveList0.title</t>
   </si>
   <si>
@@ -1422,9 +1323,6 @@
     <t>Proxy War</t>
   </si>
   <si>
-    <t>Доверенная война</t>
-  </si>
-  <si>
     <t>SoloDuel_ProxyWar.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
@@ -1440,25 +1338,16 @@
     <t>Job done and we've saved some stuck up Governor their job. Time to get some rest, Commander.</t>
   </si>
   <si>
-    <t>Работа сделана и мы спасли некоторых заносчивых губернаторов. Пора немного отдохнуть, командир.</t>
-  </si>
-  <si>
     <t>SoloDuel_ProxyWar.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
     <t>Well, they did say they weren't going to acknowledge a loss. See how that works out. Let's get you back to the dropship, Commander.</t>
   </si>
   <si>
-    <t>Ну, они сказали, что не собирались признавать потерю. Посмотрим что из этого выйдет. Возвращайтесь к десантному кораблю, командир.</t>
-  </si>
-  <si>
     <t>SoloDuel_ProxyWar.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
     <t>In the name of {TEAM_TAR.FactionDef.ShortName} I hereby challenge you to this war for {TGT_SYSTEM.name}! To the victor the spoils!</t>
-  </si>
-  <si>
-    <t>От имени {TEAM_TAR.FactionDef.ShortName} я призываю вас на войну за {TGT_SYSTEM.name}! Победителю достаются трофеи!</t>
   </si>
   <si>
     <t>SoloDuel_ProxyWar.longDescription</t>
@@ -1526,7 +1415,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1829,13 +1719,13 @@
   <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="C193" sqref="A1:C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1879,2086 +1769,2086 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="174" s="3" customFormat="1">
-      <c r="A174" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>433</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="174" s="4" customFormat="1">
+      <c r="A174" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>436</v>
+        <v>408</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="191" s="3" customFormat="1">
-      <c r="A191" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>483</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="191" s="4" customFormat="1">
+      <c r="A191" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>489</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
   <si>
     <t>Blackout_DugInDeep.contractName</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Landing site secure. Let's do what we agreed, Commander. Scout out that data relay and take it from there. Good luck.</t>
   </si>
   <si>
+    <t>Зона высадки безопасна. Давайте сделаем то, о чем договорились, командир. Найдите этот ретранслятор данных и возьмите его оттуда. Удачи.</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -58,7 +61,7 @@
     <t>Blackout_DugInDeep.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t>*** DETECTED INCOMING FORCES OF UNKNOWN ORIGIN **** ... *** RED ALERT STATUS ***</t>
+    <t xml:space="preserve">*** DETECTED INCOMING FORCES OF UNKNOWN ORIGIN ****  ...  *** RED ALERT STATUS ***</t>
   </si>
   <si>
     <t>*** ОБНАРУЖЕНЫ ПРИБЛИЖАЮЩИЕСЯ НЕОПОЗНАННЫЕ ЦЕЛИ **** ... *** БОЕВАЯ ТРЕВОГА! ***</t>
@@ -70,13 +73,16 @@
     <t>Red alert status for unknown forces? They've got their defenses fully primed. What's going on?!</t>
   </si>
   <si>
+    <t>Боевая тревого для неизвестных сил? У них отличное бронирование. Что происходит?!</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.dialogueList5.dialogueContent0.words</t>
   </si>
   <si>
     <t>A lance of mechs?! We were told to expect minor resistance. Shit... Lance! Engage!</t>
   </si>
   <si>
-    <t>Отряд мехов?! Нам было сказано ожидать незначительного сопротивления. Дерьмо... Отряд! Вступаем в бой!</t>
+    <t>Отряд мехов?! Нам сказали ожидать незначительного сопротивление. Дерьмо... Отряд! Вступаем в бой!</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList5.dialogueContent1.words</t>
@@ -85,6 +91,9 @@
     <t>Looks like we've walked into a full assault, Commander. Contacts are hostile and incoming.</t>
   </si>
   <si>
+    <t>Похоже, вы начали полноценный штурм, командир. Враждебные контакты, и прибилижаются.</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.dialogueList5.dialogueContent2.words</t>
   </si>
   <si>
@@ -109,6 +118,9 @@
     <t>We either came at the right time or the worst time. Good job on dispatching that assault. I fear that's not the last of them though. Expect more OpFor, Commander.</t>
   </si>
   <si>
+    <t>Либо мы пришли в нужное время, либо не вовремя. Неплохо поработали отражению нападения. Боюсь, что это не все. Ожидайте еще противников, командир.</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.dialogueList8.dialogueContent0.words</t>
   </si>
   <si>
@@ -133,18 +145,27 @@
     <t>We first noticed our data streams were being interrupted then had the odd scout probe our defenses. You arrived right on time for the main event it seems.</t>
   </si>
   <si>
+    <t>Сначала мы заметили, что наши потоки данных прерываются, а затем странный разведчик прозондировал нашу защиту. Похоже, вы прибыли как раз к главному событию.</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.dialogueList8.dialogueContent3.words</t>
   </si>
   <si>
     <t>We've got contacts! Incoming!</t>
   </si>
   <si>
+    <t>У нас контакт! Наступают!</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.longDescription</t>
   </si>
   <si>
     <t>Interrupted mid-stream? Not much does that, Commander. We better be ready for anything down there.</t>
   </si>
   <si>
+    <t>Прерванная трансляция? Не густо, командир. Лучше быть готовыми ко всему внизу.</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.objectiveList0.title</t>
   </si>
   <si>
@@ -160,6 +181,9 @@
     <t>Survive the turrets in alpha base</t>
   </si>
   <si>
+    <t>Защитить турели на базе альфа</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.objectiveList1.title</t>
   </si>
   <si>
@@ -172,6 +196,9 @@
     <t>Link up with the main compound</t>
   </si>
   <si>
+    <t>Связаться с основным соединением</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.objectiveList2.title</t>
   </si>
   <si>
@@ -199,6 +226,9 @@
     <t>Survive the hacked turrets in bravo base</t>
   </si>
   <si>
+    <t>Защитить взломанные турели на базе браво</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.objectiveList4.title</t>
   </si>
   <si>
@@ -214,6 +244,9 @@
     <t>Last week, radio coms with a strategic outpost was interrupted mid datastream to one of the remote relays and we've been unable to reestablish contact. Our other units are all tied up, so we need you to make contact and get a sitrep.</t>
   </si>
   <si>
+    <t>На прошлой неделе связь с аванпостом была прервана в середине передачи данных к одному из ретрансляторов, мы не смогли восстановить связь. Все наши подразделения заняты, поэтому нам нужно, чтобы вы установили контакт и доложили ситуацию.</t>
+  </si>
+  <si>
     <t>Blackout_HeavyStatic.contractName</t>
   </si>
   <si>
@@ -229,6 +262,9 @@
     <t>We've received very little intel on this situation. We just know they went dark and we assume jamming is involved. Careful out there, Commander.</t>
   </si>
   <si>
+    <t>Мы получили очень мало разведданных. Мы просто знаем, что они пропали, и, предполагаю, речь идет о помехах. Осторожно, командир.</t>
+  </si>
+  <si>
     <t>Blackout_HeavyStatic.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -244,6 +280,9 @@
     <t>It's me again, Commander! I've managed to activate our base defenses. Locked them all shortly before we lost control. Give them hell!</t>
   </si>
   <si>
+    <t>Это снова я, командир! Мне удалось активировать оборону базы. Мы заблокировали ее незадолго до того, как потеряли контроль. Задайте им жару!</t>
+  </si>
+  <si>
     <t>Blackout_HeavyStatic.dialogueList11.dialogueContent0.words</t>
   </si>
   <si>
@@ -259,27 +298,42 @@
     <t>We've been holding off assaults on our position for the past few weeks. We've fallen back to this base but we can't hold out for much longer.</t>
   </si>
   <si>
+    <t>Последние несколько недель мы сдерживали нападения на нашу позицию. Мы отступили на эту базу, но долго не продержимся.</t>
+  </si>
+  <si>
     <t>Blackout_HeavyStatic.dialogueList11.dialogueContent2.words</t>
   </si>
   <si>
+    <t>Множество контактов! Сближаются!</t>
+  </si>
+  <si>
     <t>Blackout_HeavyStatic.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
     <t>The loss of that position will come at a bad time for {TEAM_EMP.FactionDef.ShortName}. No good news for us either.</t>
   </si>
   <si>
+    <t>Потеря этой позиции наступит в неподходящее время для {TEAM_EMP.FactionDef.ShortName}. Для нас тоже.</t>
+  </si>
+  <si>
     <t>Blackout_HeavyStatic.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
     <t>Strange. There looks like there's been fighting here but it was a least a few weeks ago. Let's look up on ahead. Maybe we'll find something at the other base.</t>
   </si>
   <si>
+    <t>Странно. Похоже, здесь шел бой, но это было, по крайней мере, несколько недель назад. Давайте посмотрим дальше. Может, найдем что-нибудь на другой базе.</t>
+  </si>
+  <si>
     <t>Blackout_HeavyStatic.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
     <t>What's this?! The turrets are activating. Incoming fire, Commander!</t>
   </si>
   <si>
+    <t>Что это?! Турели активируются. Огонь на поражение, командир!</t>
+  </si>
+  <si>
     <t>Blackout_HeavyStatic.dialogueList5.dialogueContent0.words</t>
   </si>
   <si>
@@ -292,6 +346,9 @@
     <t>This isn't good, Commander. You're surrounded!</t>
   </si>
   <si>
+    <t>Это нехорошо, командир. Вы окружены!</t>
+  </si>
+  <si>
     <t>Blackout_HeavyStatic.dialogueList5.dialogueContent2.words</t>
   </si>
   <si>
@@ -316,7 +373,7 @@
     <t>Unidentified BattleMech lance. Declare yourself. You are violating a {TEAM_EMP.FactionDef.Demonym} militarised zone</t>
   </si>
   <si>
-    <t>Unidentified BattleMech lance. Declare yourself. You are violating a {TEAM_EMP.FactionDef.Name} militarised zone</t>
+    <t>Неопознанное копье мехов. Обозначте себя. Вы нарушаете миллитаризированную зону {TEAM_EMP.FactionDef.Name}</t>
   </si>
   <si>
     <t>Blackout_HeavyStatic.dialogueList8.dialogueContent1.words</t>
@@ -385,7 +442,7 @@
     <t>Forward base is a little misleading, Commander. I've heard rumours it's more a spy station. Let's go find out what's going on.</t>
   </si>
   <si>
-    <t>Передовая база вводит в заблуждение, командир. Ходят слухи, что это скорее шпионская станция. Пойдем выясним, что происходит.</t>
+    <t>Передовая база вводит в заблуждение, командир. Ходят слухи, что это больше шпионская станция. Давайте выясним, что происходит.</t>
   </si>
   <si>
     <t>Blackout_HeavyStatic.objectiveList0.title</t>
@@ -451,9 +508,6 @@
     <t>Blackout_HeavyStatic.objectiveList5.description</t>
   </si>
   <si>
-    <t>Защитить взломанные турели на базе браво</t>
-  </si>
-  <si>
     <t>Blackout_HeavyStatic.objectiveList5.title</t>
   </si>
   <si>
@@ -463,7 +517,7 @@
     <t>We recently lost contact with one of our forward bases in the {TGT_SYSTEM.name} system. We've heard rumours of {TEAM_TAR.FactionDef.Demonym} activity near here so it might be related. We need you to go in and investigate for us.</t>
   </si>
   <si>
-    <t>We recently lost contact with one of our forward bases in the {TGT_SYSTEM.name} system. We've heard rumours of {TEAM_TAR.FactionDef.Name} activity near here so it might be related. We need you to go in and investigate for us.</t>
+    <t>Недавно мы потеряли связь с одной из наших баз в системе {TGT_SYSTEM.name}. До нас дошли слухи об активности {TEAM_TAR.FactionDef.Name} поблизости, так что это может быть связано. Нам нужно, чтобы вы провели разведку.</t>
   </si>
   <si>
     <t>Blackout_UnknownCause.contractName</t>
@@ -472,12 +526,18 @@
     <t>Unknown Cause</t>
   </si>
   <si>
+    <t>Неизвестная причина</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
     <t>We've been informed there's two main bases for the Biolab. Let's head to the first one and scout it out. And... try not to take any deep breaths out there, Commander.</t>
   </si>
   <si>
+    <t>Нам сообщили, что у Биолаборатории есть две основные базы. Давайте отправимся к первому и разведем его. И ... постарайтесь не делать глубоких вдохов, командир.</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -493,7 +553,7 @@
     <t>*** DETECTED OCCUPYING FORCE *** ... *** VIRUS DETECTED ON OCCUPYING UNITS *** .... *** ACTIVATING DEVICE NETWORK ***</t>
   </si>
   <si>
-    <t>*** ОБНАРУЖЕНА ОККУПАЦИОННАЯ СИЛА *** ... *** ВИРУС ОБНАРУЖЕН НА ОККУПАЦИОННЫХ ЕДИНИЦАХ *** .... *** АКТИВАЦИЯ СЕТИ УСТРОЙСТВ ***</t>
+    <t>*** ОБНАРУЖЕНА ОККУПАЦИОННЫЕ СИЛЫ *** ... *** ВИРУС ОБНАРУЖЕН НА ОККУПИРУЮЩИХ ЮНИТАХ*** .... *** АКТИВАЦИЯ СЕТИ УСТРОЙСТВ ***</t>
   </si>
   <si>
     <t>Blackout_UnknownCause.dialogueList11.dialogueContent0.words</t>
@@ -511,7 +571,7 @@
     <t>We had a containment breach on one of our projects. Nothing serious I assure you and we have it under control. However, it looks like we've pushed the {TEAM_TAR.FactionDef.Demonym} watchers too far. They're determined to wipe us out!</t>
   </si>
   <si>
-    <t>We had a containment breach on one of our projects. Nothing serious I assure you and we have it under control. However, it looks like we've pushed the {TEAM_TAR.FactionDef.Name} watchers too far. They're determined to wipe us out!</t>
+    <t>У нас было нарушение условий содержания на одном из наших проектов. Ничего серьезного, уверяю вас все под контролем. Однако похоже, что мы зашли слишком далеко от требований наблюдателей {TEAM_TAR.FactionDef.Name}. Они полны решимости уничтожить нас!</t>
   </si>
   <si>
     <t>Blackout_UnknownCause.dialogueList11.dialogueContent2.words</t>
@@ -529,13 +589,16 @@
     <t>There are a few dead bodies scattered around the base here, Commander. I hate to say it but maybe there's something going on with this biolab. Let's check the biolab complex.</t>
   </si>
   <si>
+    <t>Около базы обнаружено несколько трупов, командир. Я не хочу это говорить, но, может быть, в биолаборатории что-то происходит. Давайте проверим комплекс биолабораторий.</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
     <t>*** DETECTED UNKNOWN FORCE *** ... *** VIRUS BREACH DETECTED *** .... *** ACTIVATING DEVICE NETWORK ***</t>
   </si>
   <si>
-    <t>*** ОБНАРУЖЕНА НЕИЗВЕСТНАЯ СИЛА *** ... *** ОБНАРУЖЕНО ВИРУСНОЕ ВТОРЖЕНИЕ *** .... *** АКТИВАЦИЯ СЕТИ УСТРОЙСТВ ***</t>
+    <t>*** ОБНАРУЖЕНА НЕИЗВЕСТНАЯ СИЛА *** ... *** ОБНАРУЖЕНО РАСПРОСТРАНЕНИЕ ВИРУСА *** .... *** АКТИВАЦИЯ СЕТИ УСТРОЙСТВ ***</t>
   </si>
   <si>
     <t>Blackout_UnknownCause.dialogueList4.dialogueContent1.words</t>
@@ -544,13 +607,16 @@
     <t>Watch out, Commander! Turrets coming online!</t>
   </si>
   <si>
+    <t>Осторожно, командир! Турели активируются!</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.dialogueList5.dialogueContent0.words</t>
   </si>
   <si>
     <t>We knew your damned experiments here would ruin us, {TEAM_EMP.FactionDef.Demonym}. Now you've released that virus and killed us all. At least we'll take you with us first.</t>
   </si>
   <si>
-    <t>We knew your damned experiments here would ruin us, {TEAM_EMP.FactionDef.Name}. Now you've released that virus and killed us all. At least we'll take you with us first.</t>
+    <t>Мы знали, что ваши чертовы эксперименты нас погубят, {TEAM_EMP.FactionDef.Name}. Теперь вы выпустили этот вирус и убили всех нас. Но по крайней мере, мы заберем вас с собой.</t>
   </si>
   <si>
     <t>Blackout_UnknownCause.dialogueList5.dialogueContent1.words</t>
@@ -559,6 +625,9 @@
     <t>Virus? Commander, incoming hostiles!</t>
   </si>
   <si>
+    <t>Вирус? Тут враги наступают, командир!</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.dialogueList5.dialogueContent2.words</t>
   </si>
   <si>
@@ -574,6 +643,9 @@
     <t>What was all that about a virus? To be on the safe side I wouldn't leave your mechs whilst you're down there. Let's move to the biolab complex to figure this out.</t>
   </si>
   <si>
+    <t>Так это все вирус? На всякий случай я бы покидал мех, пока вы там. Давайте выдвигаться к комплексу биолабораторий, чтобы разобраться с этим.</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.dialogueList7.dialogueContent0.words</t>
   </si>
   <si>
@@ -589,13 +661,16 @@
     <t>Unidentified BattleMech lance. This base has been put under quarantine by {TEAM_TAR.FactionDef.ShortName}. Leave this area now.</t>
   </si>
   <si>
+    <t>Неопознанное копье мехов. Эта база помещена на карантин {TEAM_TAR.FactionDef.ShortName}. Покиньте это место сейчас же.</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.dialogueList8.dialogueContent1.words</t>
   </si>
   <si>
     <t>{TEAM_TAR.FactionDef.Demonym} radio operator. You have illegally taken over this {TEAM_EMP.FactionDef.Demonym} base. Leave or be forced out.</t>
   </si>
   <si>
-    <t>{TEAM_TAR.FactionDef.Name} радист. Вы незаконно захватили эту базу {TEAM_EMP.FactionDef.Name}. Выйдите или вас вышвырнут.</t>
+    <t>{TEAM_TAR.FactionDef.Name} сообщает. Вы незаконно захватили эту базу {TEAM_EMP.FactionDef.Name}. Уходите или вас вышвырнут.</t>
   </si>
   <si>
     <t>Blackout_UnknownCause.dialogueList8.dialogueContent2.words</t>
@@ -604,19 +679,25 @@
     <t>You leave us no choice. Contain and control those Mercs!</t>
   </si>
   <si>
+    <t>Вы не оставляете нам выбора. Сдерживайте и следите за этими наемниками!</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.dialogueList9.dialogueContent0.words</t>
   </si>
   <si>
     <t>Watch out, Commander! Base defenses are coming online!</t>
   </si>
   <si>
+    <t>Осторожно, командир! Оборона базы активировалась!</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.longDescription</t>
   </si>
   <si>
     <t>Bio research station? We better be careful here, Commander. I don't fancy catching a new type of cold, if you know what I mean?</t>
   </si>
   <si>
-    <t>Биологическая исследовательская станция? Нам лучше быть здесь поосторожнее, командир. Я не хочу заболеть новым типом простуды, если вы понимаете, о чем я?</t>
+    <t>Биологическая исследовательская станция? Лучше быть здесь поосторожнее, командир. Я не хочу заболеть новым типом простуды, если вы понимаете, о чем я?</t>
   </si>
   <si>
     <t>Blackout_UnknownCause.objectiveList0.title</t>
@@ -634,12 +715,18 @@
     <t>Survive the bioscan in alpha base</t>
   </si>
   <si>
+    <t>Защитить биоскан на базе альфа</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.objectiveList1.title</t>
   </si>
   <si>
     <t>Survive the bioscan</t>
   </si>
   <si>
+    <t>Защитить биоскан</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.objectiveList2.description</t>
   </si>
   <si>
@@ -730,6 +817,9 @@
     <t>Straight out of the holovids, Commander. A showdown at high noon... or whatever time it will be on {TGT_SYSTEM.name}.</t>
   </si>
   <si>
+    <t>Прямо на головидео, командир. Поединок в полдень... или в другое время, на {TGT_SYSTEM.name}.</t>
+  </si>
+  <si>
     <t>DuoDuel_AtHighNoon.objectiveList0.title</t>
   </si>
   <si>
@@ -745,7 +835,7 @@
     <t>Our bases in {TGT_SYSTEM.name} have been plagued by the local Jarman brothers. With support from {TEAM_TAR.FactionDef.ShortName} they continually raid our supplies and we've had enough. Using their overconfidence against them we've baited them into accepting a duel with us. Can you help us out?</t>
   </si>
   <si>
-    <t>Наши базы в {TGT_SYSTEM.name} подверглись нападению местных братьев Джарман. При поддержке {TEAM_TAR.FactionDef.ShortName} они постоянно грабят наши припасы, и с нас достаточно. Используя их самоуверенность, мы заставили их согласиться на дуэль с нами. Вы можете нам помочь?</t>
+    <t>Наши базы в {TGT_SYSTEM.name} подверглись нападению местных, братьев Джарман. При поддержке {TEAM_TAR.FactionDef.ShortName} они постоянно грабят наши припасы, и с нас достаточно. Используя их самоуверенность, мы заставили их согласиться на дуэль с нами. Вы можете нам помочь?</t>
   </si>
   <si>
     <t>DuoDuel_DoubleTrouble.contractName</t>
@@ -763,7 +853,7 @@
     <t>Ready up, Commander.</t>
   </si>
   <si>
-    <t>Все готово, командир.</t>
+    <t>Закончили, командир.</t>
   </si>
   <si>
     <t>DuoDuel_DoubleTrouble.dialogueList0.dialogueContent1.words</t>
@@ -772,7 +862,7 @@
     <t>It's unfortunate how this has turned out but we can't back down now. Sort these {TEAM_TAR.FactionDef.Demonym} guards out then let's get out of here.</t>
   </si>
   <si>
-    <t>It's unfortunate how this has turned out but we can't back down now. Sort these {TEAM_TAR.FactionDef.Name} guards out then let's get out of here.</t>
+    <t>К сожалению, все таким образом, но мы не можем отступить сейчас. Разберите этих стражников из {TEAM_TAR.FactionDef.Name}, и убираемся отсюда.</t>
   </si>
   <si>
     <t>DuoDuel_DoubleTrouble.dialogueList1.dialogueContent0.words</t>
@@ -790,7 +880,7 @@
     <t>This isn't how it should have turned out, Commander. Let's get going. Nothing more we can do.</t>
   </si>
   <si>
-    <t>Все должно ьыло быть не так, командир. Давайте продолжим. Мы больше ничего не можем сделать.</t>
+    <t>Все должно было быть не так, командир. Давайте продолжим. Мы больше ничего не можем здесь сделать.</t>
   </si>
   <si>
     <t>DuoDuel_DoubleTrouble.longDescription</t>
@@ -799,7 +889,7 @@
     <t>Commander, looks like those two guys that the {TEAM_EMP.FactionDef.Demonym} crew ticked off last night were actually {TEAM_TAR.FactionDef.Demonym} guards. Looks like we've got ourselves a duel.</t>
   </si>
   <si>
-    <t>Командир, похоже, что те двое парней, которых команда {TEAM_EMP.FactionDef.Name} отметила прошлой ночью, на самом деле были охранниками {TEAM_TAR.FactionDef.Name}. Похоже, нам предстоит дуэль.</t>
+    <t>Командир, похоже, что те двое парней, которых команда {TEAM_EMP.FactionDef.Name} встретила прошлой ночью, на самом деле были стражниками {TEAM_TAR.FactionDef.Name}. Кажеться, дуэль все таки состоиться.</t>
   </si>
   <si>
     <t>DuoDuel_DoubleTrouble.objectiveList0.title</t>
@@ -817,7 +907,7 @@
     <t>Last night a few of our crew members took some much needed R&amp;R at the local {TEAM_TAR.FactionDef.Demonym} bar. Words were said and now it looks like we're stuck in a duel with two apparent {TEAM_TAR.FactionDef.Demonym} guards. Our crew aren't fighters so maybe you can help us out?</t>
   </si>
   <si>
-    <t>Last night a few of our crew members took some much needed R&amp;R at the local {TEAM_TAR.FactionDef.Name} bar. Words were said and now it looks like we're stuck in a duel with two apparent {TEAM_TAR.FactionDef.Name} guards. Our crew aren't fighters so maybe you can help us out?</t>
+    <t>Вчера вечером несколько членов нашей команды отдыхали в местном баре {TEAM_TAR.FactionDef.Name}. Были сказаны некоторые слова, и теперь похоже, что мы подписали себе дуэль с двумя стражниками {TEAM_TAR.FactionDef.Name}. Мы не бойцы, но может быть, вы нам поможете?</t>
   </si>
   <si>
     <t>DuoDuel_FestiveCouple.contractName</t>
@@ -853,6 +943,9 @@
     <t>I think we've just rained on the festival celebrations with this loss.</t>
   </si>
   <si>
+    <t>Думаю, мы только что нарушили фестивальное торжество этой потерей.</t>
+  </si>
+  <si>
     <t>DuoDuel_FestiveCouple.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
@@ -886,7 +979,7 @@
     <t>As with every year at this festive time on {TGT_SYSTEM.name} we host an arena fight for the people. This year we'd like you to be our representative. Your duo duel is against {TEAM_TAR.FactionDef.ShortName}. We're placing our trust in you so please don't let us down.</t>
   </si>
   <si>
-    <t>Как и каждый год в это праздничное время, на {TGT_SYSTEM.name}, мы устраиваем бой на арене для людей. В этом году мы хотим, чтобы вы были нашим представителем. Ваш дуэльный поединок против {TEAM_TAR.FactionDef.ShortName}. Мы доверяем вам, поэтому, пожалуйста, не подведите нас.</t>
+    <t>Каждый год в это праздничное время, на {TGT_SYSTEM.name}, мы устраиваем бой на арене для людей. В этом году мы хотим, чтобы вы были нашим представителем. Ваш дуэльный поединок против {TEAM_TAR.FactionDef.ShortName}. Мы доверяем вам, поэтому, пожалуйста, не подведите нас.</t>
   </si>
   <si>
     <t>DuoDuel_LastMinuteReplacements.contractName</t>
@@ -922,7 +1015,7 @@
     <t>Let's get you out of here, Commander. It couldn't be helped.</t>
   </si>
   <si>
-    <t>Давай вытащим тебя отсюда, командир. Ничего не поделаешь.</t>
+    <t>Давай вытаскивать тебя отсюда, командир. Ничего не поделаешь.</t>
   </si>
   <si>
     <t>DuoDuel_LastMinuteReplacements.dialogueList3.dialogueContent0.words</t>
@@ -940,6 +1033,9 @@
     <t>So, pick up the mess AND give away the credit. What a raw situation. At least the MRB knows the deal.</t>
   </si>
   <si>
+    <t>Итак, соберись и отдай им должное. Работаем грубо. По крайней мере, MRBС знает о сделке.</t>
+  </si>
+  <si>
     <t>DuoDuel_LastMinuteReplacements.objectiveList0.title</t>
   </si>
   <si>
@@ -955,7 +1051,7 @@
     <t>We're in a bit of trouble. Two of our pilots challenged two long standing {TEAM_TAR.FactionDef.Demonym} duelists to a fight. Only now our pilots are nowhere to be found. Can you step in and take their spots please? Of course, you'd have to pretend to be our pilots.</t>
   </si>
   <si>
-    <t>We're in a bit of trouble. Two of our pilots challenged two long standing {TEAM_TAR.FactionDef.Name} duelists to a fight. Only now our pilots are nowhere to be found. Can you step in and take their spots please? Of course, you'd have to pretend to be our pilots.</t>
+    <t>У нас маленькая проблема. Два наших пилота бросили вызов давним дуэлянтам {TEAM_TAR.FactionDef.Name}. И сейчас наших пилотов нигде нет. Не могли бы вы занять их места, пожалуйста? И конечно, вам придется прикинуться нашими пилотами.</t>
   </si>
   <si>
     <t>DuoDuel_WordsHurt.contractName</t>
@@ -982,7 +1078,7 @@
     <t>There we go. Issue settled. Back to the dropship, Commander.</t>
   </si>
   <si>
-    <t>Вот так. Вопрос решен. Возвращайтесь к десантному кораблю, командир.</t>
+    <t>Ну вот. Вопрос решен. Возвращайтесь к десантному кораблю, командир.</t>
   </si>
   <si>
     <t>DuoDuel_WordsHurt.dialogueList2.dialogueContent0.words</t>
@@ -991,19 +1087,25 @@
     <t>This isn't how things should be. You shouldn't be able to repress the truth like this.</t>
   </si>
   <si>
+    <t>Так не должно быть. Вы не сможете подавить истину вот так.</t>
+  </si>
+  <si>
     <t>DuoDuel_WordsHurt.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
     <t>You will retract that report. Right. Now.</t>
   </si>
   <si>
+    <t>Вы опровергнете этот отчет. Верно. Сейчас.</t>
+  </si>
+  <si>
     <t>DuoDuel_WordsHurt.longDescription</t>
   </si>
   <si>
     <t>I just don't know, Commander. When people say they want to 'fight' allegations it's not meant to be a real fight. This {TEAM_TAR.FactionDef.Demonym} Governor is crazy. Let's uphold the truth... for a price.</t>
   </si>
   <si>
-    <t>Я не знаю, командир. Когда люди говорят, что хотят «бороться» с обвинениями, это не значает настоящую борьбу. Этот губернатор {TEAM_TAR.FactionDef.Name} псих. Давайте отстаивать правду ... за свою цену.</t>
+    <t>Я не знаю, командир. Когда люди говорят, что хотят «бороться» с обвинениями, это не должно означать настоящую борьбу. Этот губернатор {TEAM_TAR.FactionDef.Name} псих. Давайте отстаивать правду... за некоторую цену.</t>
   </si>
   <si>
     <t>DuoDuel_WordsHurt.objectiveList0.title</t>
@@ -1015,7 +1117,7 @@
     <t>We've been informed by one of the largest news networks that a {TEAM_TAR.FactionDef.Demonym} Governor has taken issue with a recently released report on military fund spending irregularities. She's demanded a duel to fight those allegations. We'd like to hire you to represent and uphold that worthy news report, Commander.</t>
   </si>
   <si>
-    <t>We've been informed by one of the largest news networks that a {TEAM_TAR.FactionDef.Name} Governor has taken issue with a recently released report on military fund spending irregularities. She's demanded a duel to fight those allegations. We'd like to hire you to represent and uphold that worthy news report, Commander.</t>
+    <t>Одна из крупнейших новостных сетей проинформировала нас, что губернатор {TEAM_TAR.FactionDef.Name} выразил недовольство недавно опубликованным отчетом о нарушениях в расходах военного бюджета. Она потребовала дуэли для опровержения обвинений. Они хотели бы нанять вас, чтобы вы представляли и поддерживали этот отчет, командир.</t>
   </si>
   <si>
     <t>DuoDuel_YearlyTussle.contractName</t>
@@ -1024,6 +1126,9 @@
     <t>Yearly Tussle</t>
   </si>
   <si>
+    <t>Ежегодная схватка</t>
+  </si>
+  <si>
     <t>DuoDuel_YearlyTussle.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
@@ -1039,6 +1144,9 @@
     <t>You did it! Time to organise the party. We can't let all this go to waste!</t>
   </si>
   <si>
+    <t>Ты сделал это! Пора организовать вечеринку. Мы не можем позволить всему этому пропасть зря!</t>
+  </si>
+  <si>
     <t>DuoDuel_YearlyTussle.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
@@ -1054,12 +1162,18 @@
     <t>Ready yourself, Mercs. We've got a reputation to uphold and an appetite to satisfy.</t>
   </si>
   <si>
+    <t>Готовьтесь, наемники. Нам нужно поддерживать репутацию и удовлетворять аппетиты.</t>
+  </si>
+  <si>
     <t>DuoDuel_YearlyTussle.longDescription</t>
   </si>
   <si>
     <t>What do you think? Maybe we can get some of this good food and fine wine as part of the deal!</t>
   </si>
   <si>
+    <t>Как думаешь? Может быть, нам дадут хорошей еды и прекрасного вина в рамках сделки!</t>
+  </si>
+  <si>
     <t>DuoDuel_YearlyTussle.objectiveList0.title</t>
   </si>
   <si>
@@ -1075,7 +1189,7 @@
     <t>Every year we {TEAM_EMP.FactionDef.Demonym}s in {TGT_SYSTEM.name} continue a historic procedure with the local {TEAM_TAR.FactionDef.Demonym}s. We both field mercenaries and whoever wins claims a years worth of good food and fine wines. Our usual mercenaries who help us were recently and unexpectedly wiped out by a failed jumpship jump, so we've come to you for help.</t>
   </si>
   <si>
-    <t>Every year we {TEAM_EMP.FactionDef.Name}s in {TGT_SYSTEM.name} continue a historic procedure with the local {TEAM_TAR.FactionDef.Name}s. We both field mercenaries and whoever wins claims a years worth of good food and fine wines. Our usual mercenaries who help us were recently and unexpectedly wiped out by a failed jumpship jump, so we've come to you for help.</t>
+    <t>Каждый год мы {TEAM_EMP.FactionDef.Name} в {TGT_SYSTEM.name} продолжаем традицию с местными {TEAM_TAR.FactionDef.Name}. Мы оба наемники, и тот, кто победит, целый год пробует хорошую еду и прекрасное вино. Наемники, к которым мы обычно обращались, недавно были неожиданно уничтожены неудачным прыжком с трамплина, поэтому мы обратились к вам за помощью.</t>
   </si>
   <si>
     <t>SoloDuel_AllEyesOn.contractName</t>
@@ -1102,6 +1216,9 @@
     <t>You're all set up to be recorded and analysed. Time to show them a thing or two, Commander.</t>
   </si>
   <si>
+    <t>Все готово для записи и анализа. Пора показать им кое-что, командир.</t>
+  </si>
+  <si>
     <t>SoloDuel_AllEyesOn.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -1117,12 +1234,18 @@
     <t>Let's get out of here. I guess they won't be using that data after all.</t>
   </si>
   <si>
+    <t>Давайте выбираться отсюда. Думаю, они не будут использовать эту информацию.</t>
+  </si>
+  <si>
     <t>SoloDuel_AllEyesOn.longDescription</t>
   </si>
   <si>
     <t>There's worse ways to make money than influencing a whole new generation of pilot's fighting styles. Sounds fun!</t>
   </si>
   <si>
+    <t>Есть способы заработать деньги и похуже, чем повлиять на новое поколение боевых стилей пилотов. Звучит весело!</t>
+  </si>
+  <si>
     <t>SoloDuel_AllEyesOn.objectiveList0.title</t>
   </si>
   <si>
@@ -1156,7 +1279,7 @@
     <t>All the holo-cams are focused on you guys so put up a show but finish that {TEAM_TAR.FactionDef.Demonym} champion in style.</t>
   </si>
   <si>
-    <t>Все голокамеры направлены на вас, ребята, так что устройте шоу, но добейте с шиком этого чемпиона {TEAM_TAR.FactionDef.Name}.</t>
+    <t>Все голокамеры направлены на вас, ребята, так что устройте шоу, и добейте с шиком этого чемпиона {TEAM_TAR.FactionDef.Name}.</t>
   </si>
   <si>
     <t>SoloDuel_ATasteForWar.dialogueList1.dialogueContent0.words</t>
@@ -1174,6 +1297,9 @@
     <t>Well... at least we didn't go down without a fight. Let's hope the holo-cams got your good side, Commander.</t>
   </si>
   <si>
+    <t>Ну... по крайней мере, мы не сдались без боя. Будем надеяться, что голокамеры на вашей стороне командир.</t>
+  </si>
+  <si>
     <t>SoloDuel_ATasteForWar.longDescription</t>
   </si>
   <si>
@@ -1270,7 +1396,7 @@
     <t>Over the past few weeks we've been engaged in small stage skirmishes with {TEAM_TAR.FactionDef.ShortName} in and around {TGT_SYSTEM.name}. The company commander must feel they can't continue their campaign because they've requested a duel to claim this local forward base. Little do they know that we've recently run out of supplies so we've very much taken them up on their offer. This is where you come in. We need to you win this for us, Commander.</t>
   </si>
   <si>
-    <t xml:space="preserve">За последние несколько недель мы участвовали в небольших стычках с {TEAM_TAR.FactionDef.ShortName} внутри и вокруг {TGT_SYSTEM.name}. Их командир  понимает, что они не могут продолжать свою кампанию, потому они запросили дуэль, чтобы захватить эту местную передовую базу. Откуда им было знать, что у нас недавно закончились запасы, поэтому нам выгоднее это предложение. И вот тут ваш выход. Нам нужно, чтобы вы выиграли для нас, командир.</t>
+    <t>За последние несколько недель мы участвовали в небольших стычках с {TEAM_TAR.FactionDef.ShortName} внутри и вокруг {TGT_SYSTEM.name}. Их командир понимает, что они не могут продолжать свою кампанию, потому они запросили дуэль, чтобы захватить эту местную передовую базу. Откуда им было знать, что у нас недавно закончились запасы, поэтому нам выгоднее это предложение. И вот тут ваш выход. Нам нужно, чтобы вы выиграли для нас, командир.</t>
   </si>
   <si>
     <t>SoloDuel_CorneredRevenge.contractName</t>
@@ -1288,6 +1414,9 @@
     <t>Last time we saw Killbox she was stuck on that moon, Commander. Not sure how they got off it. Guess it doesn't matter now. Good luck!</t>
   </si>
   <si>
+    <t>В последний мы видели Киллбокс застрявшей на той луне, командир. Не знаю, как они выбрались. Думаю, теперь это не имеет значения. Удачи!</t>
+  </si>
+  <si>
     <t>SoloDuel_CorneredRevenge.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -1303,10 +1432,16 @@
     <t>Killbox! We've got our lances incoming to wipe you out if you go any further. Leave now!</t>
   </si>
   <si>
+    <t>Киллбокс! Наши копья готовы уничтожить вас, если вы пойдете дальше. Уходите сейчас же!</t>
+  </si>
+  <si>
     <t>SoloDuel_CorneredRevenge.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
     <t>Never thought you'd see me again, Commander? You wouldn't if it wasn't for {TEAM_TAR.FactionDef.ShortName} helping me off that forsaken moon. I can't forgive you for what you did. Now... unlike last time - let's finish this once and for all!</t>
+  </si>
+  <si>
+    <t>Никогда не думали, что снова увидите меня, командир? {TEAM_TAR.FactionDef.ShortName} помог мне спастись с той заброшенной луны. Я не могу простить то, что ты сделал. Теперь... все будет по другому - покончим с этим раз и навсегда!</t>
   </si>
   <si>
     <t>SoloDuel_CorneredRevenge.longDescription</t>
@@ -1317,7 +1452,10 @@
 'Killbox'? Haven't heard that name for a long time. Do you think she's still upset after all these years?</t>
   </si>
   <si>
-    <t>Killbox'? Haven't heard that name for a long time. Do you think she's still upset after all these years?</t>
+    <t>Киллбокс! Давно я не слышал этого имени. Думаешь, она все еще расстроена после стольких лет?</t>
+  </si>
+  <si>
+    <t>не изменить</t>
   </si>
   <si>
     <t>SoloDuel_CorneredRevenge.objectiveList0.title</t>
@@ -1326,7 +1464,7 @@
     <t>Defeat Killbox</t>
   </si>
   <si>
-    <t>Победить коробку с пушками</t>
+    <t>Победить Киллбокс</t>
   </si>
   <si>
     <t>SoloDuel_CorneredRevenge.shortDescription</t>
@@ -1335,6 +1473,9 @@
     <t>We have a BattleMech causing us trouble in {TGT_SYSTEM.name} who refuses to back down until you, Commander, show up and fight them in a duel. They call themselves Killbox. I don't know what their problem is with you but we'll pay you to get here and just deal with them. It's causing us a headache.</t>
   </si>
   <si>
+    <t>У нас есть проблемы с мехом в {TGT_SYSTEM.name}, который отказывается отступать, пока вы, командир, не появитесь и не сразитесь с ним на дуэли. Называет себя Киллбокс. Я не знаю, в чем дело, но мы заплатим вам, чтобы вы пришли сюда и разобрались. У нас голова болит из-за этого.</t>
+  </si>
+  <si>
     <t>SoloDuel_LifeLesson.contractName</t>
   </si>
   <si>
@@ -1440,7 +1581,7 @@
     <t>Job done and we've saved some stuck up Governor their job. Time to get some rest, Commander.</t>
   </si>
   <si>
-    <t>Работа сделана и мы спасли некоторых заносчивых губернаторов. Пора немного отдохнуть, командир.</t>
+    <t>Работа сделана и мы спасли заносчивого губернатора. Пора немного отдохнуть, командир.</t>
   </si>
   <si>
     <t>SoloDuel_ProxyWar.dialogueList2.dialogueContent0.words</t>
@@ -1458,7 +1599,7 @@
     <t>In the name of {TEAM_TAR.FactionDef.ShortName} I hereby challenge you to this war for {TGT_SYSTEM.name}! To the victor the spoils!</t>
   </si>
   <si>
-    <t>От имени {TEAM_TAR.FactionDef.ShortName} я призываю вас на войну за {TGT_SYSTEM.name}! Победителю достаются трофеи!</t>
+    <t>От имени {TEAM_TAR.FactionDef.ShortName} я призываю вас на эту войну за {TGT_SYSTEM.name}! Награда достанется победителю!</t>
   </si>
   <si>
     <t>SoloDuel_ProxyWar.longDescription</t>
@@ -1469,7 +1610,7 @@
 'Don't want to risk anything here?' I think they forget that we're putting our necks on the line. I suppose if the pay is good that's what we do.</t>
   </si>
   <si>
-    <t>Не хотят здесь рисковать ничем?' Думаю, они забывают, что это мы рискуем шеями. Я думаю, что если нам хорошо заплатят, то мы этим занимаемся.</t>
+    <t>Не хотят здесь рисковать?' Думаю, они забывают, что это мы рискуем шеями. Если нам хорошо заплатят, то, я думаю, мы этим занимаемся.</t>
   </si>
   <si>
     <t>SoloDuel_ProxyWar.objectiveList0.title</t>
@@ -1487,7 +1628,7 @@
     <t>The Governor of {TGT_SYSTEM.name} has been challenged to a proxy war duel by a rival {TEAM_TAR.FactionDef.Demonym} Governor. We'd like you to be his proxy in this fight. If you lose, we'll just deny it was ever agreed to. We don't want to actually risk anything here.</t>
   </si>
   <si>
-    <t>The Governor of {TGT_SYSTEM.name} has been challenged to a proxy war duel by a rival {TEAM_TAR.FactionDef.Name} Governor. We'd like you to be his proxy in this fight. If you lose, we'll just deny it was ever agreed to. We don't want to actually risk anything here.</t>
+    <t>Губернатор {TGT_SYSTEM.name} был вызван на дуэль конкурирующим губернатором {TEAM_TAR.FactionDef.Name}. Мы бы хотели, чтобы вы были его представителем в этой битве. Если вы проиграете, мы будем отрицать наше соглашение. Мы не хотим рисковать.</t>
   </si>
 </sst>
 </file>
@@ -1495,10 +1636,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1526,12 +1678,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1826,16 +1979,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="78.85546875" customWidth="1" style="2"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" style="2"/>
+    <col min="5" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1848,6 +2003,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1857,2108 +2015,2692 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="E14" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="E17" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E22" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="E25" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="E26" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="E27" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="E28" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
+      </c>
+      <c r="E29" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="E30" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
+      </c>
+      <c r="E31" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
+      </c>
+      <c r="E32" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="E33" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
+      </c>
+      <c r="E34" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="E35" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
+      </c>
+      <c r="E36" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
+      </c>
+      <c r="E37" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="E39" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
+      </c>
+      <c r="E40" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="E41" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
+      </c>
+      <c r="E42" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>103</v>
+        <v>122</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
+      </c>
+      <c r="E46" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
+      </c>
+      <c r="E47" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
+      </c>
+      <c r="E48" s="2">
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
+      </c>
+      <c r="E49" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
+      </c>
+      <c r="E50" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
+      </c>
+      <c r="E51" s="2">
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
+      </c>
+      <c r="E52" s="2">
+        <v>52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>127</v>
+        <v>146</v>
+      </c>
+      <c r="E53" s="2">
+        <v>53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
+      </c>
+      <c r="E54" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>132</v>
+        <v>151</v>
+      </c>
+      <c r="E55" s="2">
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>135</v>
+        <v>154</v>
+      </c>
+      <c r="E56" s="2">
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="E57" s="2">
+        <v>57</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
+      </c>
+      <c r="E59" s="2">
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>143</v>
+        <v>162</v>
+      </c>
+      <c r="E60" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>145</v>
+        <v>70</v>
+      </c>
+      <c r="E61" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="2">
         <v>62</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>149</v>
+        <v>167</v>
+      </c>
+      <c r="E63" s="2">
+        <v>63</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
+      </c>
+      <c r="E64" s="2">
+        <v>64</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>153</v>
+        <v>173</v>
+      </c>
+      <c r="E65" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>156</v>
+        <v>176</v>
+      </c>
+      <c r="E66" s="2">
+        <v>66</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
+      </c>
+      <c r="E67" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>162</v>
+        <v>182</v>
+      </c>
+      <c r="E68" s="2">
+        <v>68</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>165</v>
+        <v>185</v>
+      </c>
+      <c r="E69" s="2">
+        <v>69</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
+      </c>
+      <c r="E70" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>168</v>
+        <v>188</v>
+      </c>
+      <c r="E71" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>170</v>
+        <v>191</v>
+      </c>
+      <c r="E72" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>173</v>
+        <v>194</v>
+      </c>
+      <c r="E73" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
+      </c>
+      <c r="E74" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
+      </c>
+      <c r="E75" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>180</v>
+        <v>203</v>
+      </c>
+      <c r="E76" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>183</v>
+        <v>206</v>
+      </c>
+      <c r="E77" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>185</v>
+        <v>209</v>
+      </c>
+      <c r="E78" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>188</v>
+        <v>212</v>
+      </c>
+      <c r="E79" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>190</v>
+        <v>215</v>
+      </c>
+      <c r="E80" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>193</v>
+        <v>218</v>
+      </c>
+      <c r="E81" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>195</v>
+        <v>221</v>
+      </c>
+      <c r="E82" s="2">
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>197</v>
+        <v>224</v>
+      </c>
+      <c r="E83" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>200</v>
+        <v>227</v>
+      </c>
+      <c r="E84" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>203</v>
+        <v>230</v>
+      </c>
+      <c r="E85" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
+      </c>
+      <c r="E86" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
+      </c>
+      <c r="E87" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>210</v>
+        <v>239</v>
+      </c>
+      <c r="E88" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>213</v>
+        <v>242</v>
+      </c>
+      <c r="E89" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="E91" s="2">
+        <v>91</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
+      </c>
+      <c r="E92" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>143</v>
+        <v>162</v>
+      </c>
+      <c r="E93" s="2">
+        <v>93</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="E94" s="2">
+        <v>94</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="E95" s="2">
+        <v>95</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>222</v>
+        <v>251</v>
+      </c>
+      <c r="E96" s="2">
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>225</v>
+        <v>254</v>
+      </c>
+      <c r="E97" s="2">
+        <v>97</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>228</v>
+        <v>257</v>
+      </c>
+      <c r="E98" s="2">
+        <v>98</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>230</v>
+        <v>259</v>
+      </c>
+      <c r="E99" s="2">
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>233</v>
+        <v>262</v>
+      </c>
+      <c r="E100" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>235</v>
+        <v>264</v>
+      </c>
+      <c r="E101" s="2">
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
+      </c>
+      <c r="E102" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>240</v>
+        <v>270</v>
+      </c>
+      <c r="E103" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>243</v>
+        <v>273</v>
+      </c>
+      <c r="E104" s="2">
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>246</v>
+        <v>276</v>
+      </c>
+      <c r="E105" s="2">
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>249</v>
+        <v>279</v>
+      </c>
+      <c r="E106" s="2">
+        <v>106</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>252</v>
+        <v>282</v>
+      </c>
+      <c r="E107" s="2">
+        <v>107</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>255</v>
+        <v>285</v>
+      </c>
+      <c r="E108" s="2">
+        <v>108</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>258</v>
+        <v>288</v>
+      </c>
+      <c r="E109" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>261</v>
+        <v>291</v>
+      </c>
+      <c r="E110" s="2">
+        <v>110</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>264</v>
+        <v>294</v>
+      </c>
+      <c r="E111" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>267</v>
+        <v>297</v>
+      </c>
+      <c r="E112" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>270</v>
+        <v>300</v>
+      </c>
+      <c r="E113" s="2">
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>273</v>
+        <v>303</v>
+      </c>
+      <c r="E114" s="2">
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>276</v>
+        <v>306</v>
+      </c>
+      <c r="E115" s="2">
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>278</v>
+        <v>309</v>
+      </c>
+      <c r="E116" s="2">
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>281</v>
+        <v>312</v>
+      </c>
+      <c r="E117" s="2">
+        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>284</v>
+        <v>315</v>
+      </c>
+      <c r="E118" s="2">
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>287</v>
+        <v>318</v>
+      </c>
+      <c r="E119" s="2">
+        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>290</v>
+        <v>321</v>
+      </c>
+      <c r="E120" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>293</v>
+        <v>324</v>
+      </c>
+      <c r="E121" s="2">
+        <v>121</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>296</v>
+        <v>327</v>
+      </c>
+      <c r="E122" s="2">
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>299</v>
+        <v>330</v>
+      </c>
+      <c r="E123" s="2">
+        <v>123</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>302</v>
+        <v>333</v>
+      </c>
+      <c r="E124" s="2">
+        <v>124</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>305</v>
+        <v>336</v>
+      </c>
+      <c r="E125" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>307</v>
+        <v>339</v>
+      </c>
+      <c r="E126" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>310</v>
+        <v>342</v>
+      </c>
+      <c r="E127" s="2">
+        <v>127</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>313</v>
+        <v>345</v>
+      </c>
+      <c r="E128" s="2">
+        <v>128</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>316</v>
+        <v>348</v>
+      </c>
+      <c r="E129" s="2">
+        <v>129</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>319</v>
+        <v>351</v>
+      </c>
+      <c r="E130" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>322</v>
+        <v>354</v>
+      </c>
+      <c r="E131" s="2">
+        <v>131</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>324</v>
+        <v>357</v>
+      </c>
+      <c r="E132" s="2">
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>326</v>
+        <v>360</v>
+      </c>
+      <c r="E133" s="2">
+        <v>133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>329</v>
+        <v>363</v>
+      </c>
+      <c r="E134" s="2">
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>310</v>
+        <v>342</v>
+      </c>
+      <c r="E135" s="2">
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>333</v>
+        <v>367</v>
+      </c>
+      <c r="E136" s="2">
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>335</v>
+        <v>370</v>
+      </c>
+      <c r="E137" s="2">
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>338</v>
+        <v>373</v>
+      </c>
+      <c r="E138" s="2">
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>340</v>
+        <v>376</v>
+      </c>
+      <c r="E139" s="2">
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>343</v>
+        <v>379</v>
+      </c>
+      <c r="E140" s="2">
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>345</v>
+        <v>382</v>
+      </c>
+      <c r="E141" s="2">
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>347</v>
+        <v>385</v>
+      </c>
+      <c r="E142" s="2">
+        <v>142</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>350</v>
+        <v>388</v>
+      </c>
+      <c r="E143" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>353</v>
+        <v>391</v>
+      </c>
+      <c r="E144" s="2">
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>356</v>
+        <v>394</v>
+      </c>
+      <c r="E145" s="2">
+        <v>145</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>359</v>
+        <v>397</v>
+      </c>
+      <c r="E146" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>361</v>
+        <v>400</v>
+      </c>
+      <c r="E147" s="2">
+        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>364</v>
+        <v>403</v>
+      </c>
+      <c r="E148" s="2">
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>366</v>
+        <v>406</v>
+      </c>
+      <c r="E149" s="2">
+        <v>149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>368</v>
+        <v>409</v>
+      </c>
+      <c r="E150" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>370</v>
+        <v>411</v>
+      </c>
+      <c r="E151" s="2">
+        <v>151</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>373</v>
+        <v>414</v>
+      </c>
+      <c r="E152" s="2">
+        <v>152</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>376</v>
+        <v>417</v>
+      </c>
+      <c r="E153" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>359</v>
+        <v>397</v>
+      </c>
+      <c r="E154" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>380</v>
+        <v>421</v>
+      </c>
+      <c r="E155" s="2">
+        <v>155</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>383</v>
+        <v>424</v>
+      </c>
+      <c r="E156" s="2">
+        <v>156</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>385</v>
+        <v>427</v>
+      </c>
+      <c r="E157" s="2">
+        <v>157</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>388</v>
+        <v>430</v>
+      </c>
+      <c r="E158" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>391</v>
+        <v>433</v>
+      </c>
+      <c r="E159" s="2">
+        <v>159</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>394</v>
+        <v>436</v>
+      </c>
+      <c r="E160" s="2">
+        <v>160</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>397</v>
+        <v>439</v>
+      </c>
+      <c r="E161" s="2">
+        <v>161</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>400</v>
+        <v>442</v>
+      </c>
+      <c r="E162" s="2">
+        <v>162</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>403</v>
+        <v>445</v>
+      </c>
+      <c r="E163" s="2">
+        <v>163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>406</v>
+        <v>448</v>
+      </c>
+      <c r="E164" s="2">
+        <v>164</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>409</v>
+        <v>451</v>
+      </c>
+      <c r="E165" s="2">
+        <v>165</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>412</v>
+        <v>454</v>
+      </c>
+      <c r="E166" s="2">
+        <v>166</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>415</v>
+        <v>457</v>
+      </c>
+      <c r="E167" s="2">
+        <v>167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>418</v>
+        <v>460</v>
+      </c>
+      <c r="E168" s="2">
+        <v>168</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>421</v>
+        <v>463</v>
+      </c>
+      <c r="E169" s="2">
+        <v>169</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>423</v>
+        <v>466</v>
+      </c>
+      <c r="E170" s="2">
+        <v>170</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>426</v>
+        <v>469</v>
+      </c>
+      <c r="E171" s="2">
+        <v>171</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>428</v>
+        <v>472</v>
+      </c>
+      <c r="E172" s="2">
+        <v>172</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>430</v>
+        <v>475</v>
+      </c>
+      <c r="E173" s="2">
+        <v>173</v>
       </c>
     </row>
     <row r="174" s="3" customFormat="1">
       <c r="A174" s="3" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>433</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E174" s="3">
+        <v>174</v>
+      </c>
+      <c r="G174" s="3"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>436</v>
+        <v>482</v>
+      </c>
+      <c r="E175" s="2">
+        <v>175</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>438</v>
+        <v>485</v>
+      </c>
+      <c r="E176" s="2">
+        <v>176</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>441</v>
+        <v>488</v>
+      </c>
+      <c r="E177" s="2">
+        <v>177</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>444</v>
+        <v>491</v>
+      </c>
+      <c r="E178" s="2">
+        <v>178</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>447</v>
+        <v>494</v>
+      </c>
+      <c r="E179" s="2">
+        <v>179</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>450</v>
+        <v>497</v>
+      </c>
+      <c r="E180" s="2">
+        <v>180</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>453</v>
+        <v>500</v>
+      </c>
+      <c r="E181" s="2">
+        <v>181</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>456</v>
+        <v>503</v>
+      </c>
+      <c r="E182" s="2">
+        <v>182</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>459</v>
+        <v>506</v>
+      </c>
+      <c r="E183" s="2">
+        <v>183</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>462</v>
+        <v>509</v>
+      </c>
+      <c r="E184" s="2">
+        <v>184</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>465</v>
+        <v>512</v>
+      </c>
+      <c r="E185" s="2">
+        <v>185</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>468</v>
+        <v>515</v>
+      </c>
+      <c r="E186" s="2">
+        <v>186</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>471</v>
+        <v>518</v>
+      </c>
+      <c r="E187" s="2">
+        <v>187</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>474</v>
+        <v>521</v>
+      </c>
+      <c r="E188" s="2">
+        <v>188</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>477</v>
+        <v>524</v>
+      </c>
+      <c r="E189" s="2">
+        <v>189</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>478</v>
+        <v>525</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>480</v>
+        <v>527</v>
+      </c>
+      <c r="E190" s="2">
+        <v>190</v>
       </c>
     </row>
     <row r="191" s="3" customFormat="1">
       <c r="A191" s="3" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>483</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E191" s="3">
+        <v>191</v>
+      </c>
+      <c r="G191" s="3"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>486</v>
+        <v>533</v>
+      </c>
+      <c r="E192" s="2">
+        <v>192</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>489</v>
+        <v>536</v>
+      </c>
+      <c r="E193" s="2">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="552">
   <si>
     <t>Blackout_DugInDeep.contractName</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Landing site secure. Let's do what we agreed, Commander. Scout out that data relay and take it from there. Good luck.</t>
   </si>
   <si>
-    <t>Зона высадки безопасна. Давайте сделаем то, о чем договорились, командир. Найдите этот ретранслятор данных и возьмите его оттуда. Удачи.</t>
+    <t>Зона высадки безопасна. Давайте сделаем то, о чем договорились, командир. Найдите этот ретранслятор данных и изымите его. Удачи.</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList1.dialogueContent0.words</t>
@@ -40,7 +40,7 @@
     <t>Great job, Commander! Now they can re-establish their data relay.</t>
   </si>
   <si>
-    <t>Отличная работа, командир! Теперь они могут восстановить ретрансляцию данных.</t>
+    <t>Отличная работа, командир! Теперь они смогут восстановить ретрансляцию данных.</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList2.dialogueContent0.words</t>
@@ -49,7 +49,7 @@
     <t>The loss of that data cache and relay station is bad news for {TEAM_EMP.FactionDef.ShortName}. Let's figure out our next step.</t>
   </si>
   <si>
-    <t>Потеря кэша данных и ретрансляционной станции - плохая новость для {TEAM_EMP.FactionDef.ShortName}. Давайте разберемся с нашим следующим шагом.</t>
+    <t>Потеря кэша данных и ретрансляционной станции - плохая новость для {TEAM_EMP.FactionDef.ShortName}. Давайте разберемся, что делать дальше.</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList3.dialogueContent0.words</t>
@@ -58,13 +58,16 @@
     <t>No wonder the data steam cut off. This place has been slagged. Maybe there's more we can find out in the main compound.</t>
   </si>
   <si>
+    <t>Неудивительно, что передача данных прервалась. Здесь всё в труху. Может быть в главном комплексе мы сможем прояснить ситуацию.</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
     <t xml:space="preserve">*** DETECTED INCOMING FORCES OF UNKNOWN ORIGIN ****  ...  *** RED ALERT STATUS ***</t>
   </si>
   <si>
-    <t>*** ОБНАРУЖЕНЫ ПРИБЛИЖАЮЩИЕСЯ НЕОПОЗНАННЫЕ ЦЕЛИ **** ... *** БОЕВАЯ ТРЕВОГА! ***</t>
+    <t>*** ОБНАРУЖЕНЫ ПРИБЛИЖАЮЩИЕСЯ НЕОПОЗНАННЫЕ ЦЕЛИ **** ... *** КРАСНАЯ ТРЕВОГА! ***</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList4.dialogueContent1.words</t>
@@ -73,7 +76,7 @@
     <t>Red alert status for unknown forces? They've got their defenses fully primed. What's going on?!</t>
   </si>
   <si>
-    <t>Боевая тревого для неизвестных сил? У них отличное бронирование. Что происходит?!</t>
+    <t>Красная тревога для неизвестных сил? Их система защиты завелась на полную. Что происходит?!</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList5.dialogueContent0.words</t>
@@ -82,7 +85,7 @@
     <t>A lance of mechs?! We were told to expect minor resistance. Shit... Lance! Engage!</t>
   </si>
   <si>
-    <t>Отряд мехов?! Нам сказали ожидать незначительного сопротивление. Дерьмо... Отряд! Вступаем в бой!</t>
+    <t>Отряд мехов?! Нам сказали ожидать незначительного сопротивление. Вот же ж дерьмо... Всему отряду! В бой!</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList5.dialogueContent1.words</t>
@@ -91,7 +94,7 @@
     <t>Looks like we've walked into a full assault, Commander. Contacts are hostile and incoming.</t>
   </si>
   <si>
-    <t>Похоже, вы начали полноценный штурм, командир. Враждебные контакты, и прибилижаются.</t>
+    <t>Похоже, мы начали полноценный штурм, командир. Враждебные контакты, прибилижаются.</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList5.dialogueContent2.words</t>
@@ -100,7 +103,7 @@
     <t>At least this data relay has some kind of turret defenses. They're booting up now.</t>
   </si>
   <si>
-    <t>По крайней мере, у этого ретранслятора данных есть какая-то защита из турелей. Они сейчас загружаются.</t>
+    <t>У этого ретранслятора хотя бы есть подобие защиты в виде турелей. Они сейчас запускаются.</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList6.dialogueContent0.words</t>
@@ -109,7 +112,7 @@
     <t>Is everything ok down there, Commander? Looks like those turrets were hacked. Something is definitely not right here. Let's move on to the next base.</t>
   </si>
   <si>
-    <t>Внизу все в порядке, командир? Похоже, эти турели взломали. Что-то здесь точно не так. Переходим к следующей базе.</t>
+    <t>Как вы там внизу, командир? Похоже, эти турели были взломаны. Что-то здесь точно не так. Переходите к следующей базе.</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList7.dialogueContent0.words</t>
@@ -118,7 +121,7 @@
     <t>We either came at the right time or the worst time. Good job on dispatching that assault. I fear that's not the last of them though. Expect more OpFor, Commander.</t>
   </si>
   <si>
-    <t>Либо мы пришли в нужное время, либо не вовремя. Неплохо поработали отражению нападения. Боюсь, что это не все. Ожидайте еще противников, командир.</t>
+    <t>Мы либо появились в нужное время, либо в самое худшее. Хорошо сработали с развёртыванием штурма. Но боюсь, что это не последние из них. Ожидайте ещё противников, командир.</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList8.dialogueContent0.words</t>
@@ -127,7 +130,7 @@
     <t>{COMPANY.CompanyName}! We weren't expecting to see you - in one piece, anyway. What a sight for sore eyes. Welcome to the front lines!</t>
   </si>
   <si>
-    <t>{COMPANY.CompanyName}! Мы не ожидали увидеть тебя - во всяком случае, в целости и сохранности. Какое зрелище для уставших глаз. Добро пожаловать на передовую!</t>
+    <t>{COMPANY.CompanyName}! Мы не ожидали увидеть вас - во всяком случае, целыми. Какое зрелище для уставших глаз. Добро пожаловать на передовую!</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList8.dialogueContent1.words</t>
@@ -136,7 +139,7 @@
     <t>Front lines? Lucky us. We've been sent by {TEAM_EMP.FactionDef.ShortName} to aid and assist. How are you all doing in there? What's the sitrep?</t>
   </si>
   <si>
-    <t>Линия фронта? Нам повезло. {TEAM_EMP.FactionDef.ShortName} послал нас для поддержки и помощи. Как у вас там дела? Какова обстановка?</t>
+    <t>Передовую? Вот так свезло. {TEAM_EMP.FactionDef.ShortName} прислали нас для поддержки и помощи. Как у вас там дела? Какова обстановка?</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList8.dialogueContent2.words</t>
@@ -145,7 +148,7 @@
     <t>We first noticed our data streams were being interrupted then had the odd scout probe our defenses. You arrived right on time for the main event it seems.</t>
   </si>
   <si>
-    <t>Сначала мы заметили, что наши потоки данных прерываются, а затем странный разведчик прозондировал нашу защиту. Похоже, вы прибыли как раз к главному событию.</t>
+    <t>Сначала мы заметили, что наши потоки данных стали прерываться, затем кто-то прозондировал нашу защиту. Как мне кажется, вы ребята прибыли как раз к основному событию.</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.dialogueList8.dialogueContent3.words</t>
@@ -163,7 +166,7 @@
     <t>Interrupted mid-stream? Not much does that, Commander. We better be ready for anything down there.</t>
   </si>
   <si>
-    <t>Прерванная трансляция? Не густо, командир. Лучше быть готовыми ко всему внизу.</t>
+    <t>Прерванная трансляция? Не густо, командир. Можно ожидать чего угодно там, внизу.</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.objectiveList0.title</t>
@@ -172,7 +175,7 @@
     <t>Establish SitRep</t>
   </si>
   <si>
-    <t>Доложить обстановку</t>
+    <t>Доложите обстановку</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.objectiveList1.description</t>
@@ -181,7 +184,7 @@
     <t>Survive the turrets in alpha base</t>
   </si>
   <si>
-    <t>Защитить турели на базе альфа</t>
+    <t>Устраните турели на базе альфа</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.objectiveList1.title</t>
@@ -190,13 +193,16 @@
     <t>Survive the defenses</t>
   </si>
   <si>
+    <t>Устраните силы обороны</t>
+  </si>
+  <si>
     <t>Blackout_DugInDeep.objectiveList2.description</t>
   </si>
   <si>
     <t>Link up with the main compound</t>
   </si>
   <si>
-    <t>Связаться с основным соединением</t>
+    <t>Соединитесь с основной группой</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.objectiveList2.title</t>
@@ -217,297 +223,324 @@
     <t>Destroy invading lance</t>
   </si>
   <si>
+    <t>Уничтожьте отряд вторжения</t>
+  </si>
+  <si>
+    <t>Blackout_DugInDeep.objectiveList4.description</t>
+  </si>
+  <si>
+    <t>Survive the hacked turrets in bravo base</t>
+  </si>
+  <si>
+    <t>Уничтожьте взломанные турели на базе браво</t>
+  </si>
+  <si>
+    <t>Blackout_DugInDeep.objectiveList4.title</t>
+  </si>
+  <si>
+    <t>Destroy the hacked base turrets</t>
+  </si>
+  <si>
+    <t>Уничтожьте турели взломанной базы</t>
+  </si>
+  <si>
+    <t>Blackout_DugInDeep.shortDescription</t>
+  </si>
+  <si>
+    <t>Last week, radio coms with a strategic outpost was interrupted mid datastream to one of the remote relays and we've been unable to reestablish contact. Our other units are all tied up, so we need you to make contact and get a sitrep.</t>
+  </si>
+  <si>
+    <t>На прошлой неделе связь с аванпостом была прервана во время передачи данных через один из ретрансляторов и мы не смогли восстановить связь. Все другие подразделения заняты, поэтому нам нужны вы, чтобы установить контакт и разведать ситуацию.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.contractName</t>
+  </si>
+  <si>
+    <t>Heavy Static</t>
+  </si>
+  <si>
+    <t>Сильные помехи</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList0.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>We've received very little intel on this situation. We just know they went dark and we assume jamming is involved. Careful out there, Commander.</t>
+  </si>
+  <si>
+    <t>Очень мало данных о ситуации. Известно, что связь оборвалась и... полагаю, надо исходить из того, что её кто-то намеренно оборвал. Осторожнее там, командир.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList1.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>Great job, Commander! They always say you can't judge these types of contracts.</t>
+  </si>
+  <si>
+    <t>Отличная работа, командир! Как говорится, о контрактах не судят по обложке. А тут даже обложки не было.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList10.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>It's me again, Commander! I've managed to activate our base defenses. Locked them all shortly before we lost control. Give them hell!</t>
+  </si>
+  <si>
+    <t>Это снова я, командир! Мне удалось активировать оборону базы. Мы заблокировали ее незадолго до того, как потеряли контроль. Задайте им жару!</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList11.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>Commander! Are we glad to see you! {TEAM_EMP.FactionDef.Demonym} forward base {TGT_SYSTEM.name}-Alpha.</t>
+  </si>
+  <si>
+    <t>Командир! Как же мы рады вас видеть! {TEAM_EMP.FactionDef.Name} переходят на базу {TGT_SYSTEM.name}-Альфа.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList11.dialogueContent1.words</t>
+  </si>
+  <si>
+    <t>We've been holding off assaults on our position for the past few weeks. We've fallen back to this base but we can't hold out for much longer.</t>
+  </si>
+  <si>
+    <t>Последние несколько недель мы сдерживали штурм наших позиций. Пришлось отступить на эту базу, но мы не продержимся долго.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList11.dialogueContent2.words</t>
+  </si>
+  <si>
+    <t>Множество контактов! Сближаются!</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList2.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>The loss of that position will come at a bad time for {TEAM_EMP.FactionDef.ShortName}. No good news for us either.</t>
+  </si>
+  <si>
+    <t>Потеря этой позиции придётся очень не кстати для {TEAM_EMP.FactionDef.ShortName}. Да и для нас тоже.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList3.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>Strange. There looks like there's been fighting here but it was a least a few weeks ago. Let's look up on ahead. Maybe we'll find something at the other base.</t>
+  </si>
+  <si>
+    <t>Странно. Похоже, здесь шел бой, но это было по крайней мере несколько недель назад. Давайте посмотрим дальше. Может, найдем что-нибудь на другой базе.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList4.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>What's this?! The turrets are activating. Incoming fire, Commander!</t>
+  </si>
+  <si>
+    <t>Что тут происходит?! Турели активируются. По нам ведут огонь, командир!</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList5.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>We were told to expect interference. Time to shut you out.</t>
+  </si>
+  <si>
+    <t>Нас предупредили ожидать вмешательства. Настало время прихлопнуть вас.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList5.dialogueContent1.words</t>
+  </si>
+  <si>
+    <t>This isn't good, Commander. You're surrounded!</t>
+  </si>
+  <si>
+    <t>Это нехорошо, командир. Вас окружили!</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList5.dialogueContent2.words</t>
+  </si>
+  <si>
+    <t>Hey! That base's automated turrets are spinning up. Lucky us!</t>
+  </si>
+  <si>
+    <t>Эй! Автоматические турели этой базы начали вращатся. Повезло, повезло!</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList6.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>Внизу все в порядке, командир? Похоже, эти турели были хакнуты. Что-то здесь точно не так. Давайте перейдём к следующей базе.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList7.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>How did these guys get the jump on us? We've been getting too much bad intel. This is now officially a hot zone. Let's continue our investigation. Expect more OpFor, Commander.</t>
+  </si>
+  <si>
+    <t>Как эти парни смогли свалиться на нас? Похоже, слишком много ложной информации нам скормили. Теперь это официально зона боевых действий. Продвигайтесь вперёд. Будьте готовы встретить больше противников, командир.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList8.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>Unidentified BattleMech lance. Declare yourself. You are violating a {TEAM_EMP.FactionDef.Demonym} militarised zone</t>
+  </si>
+  <si>
+    <t>Неопознанное копье мехов. Обозначте себя. Вы нарушаете миллитаризированную зону {TEAM_EMP.FactionDef.Name}</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList8.dialogueContent1.words</t>
+  </si>
+  <si>
+    <t>{TEAM_EMP.FactionDef.Demonym} radio operator. We are {COMPANY.CompanyName} and have been hired to check the sit rep here. You've been out of contact for weeks. Everything ok here?</t>
+  </si>
+  <si>
+    <t>{TEAM_EMP.FactionDef.Name} радист. Мы - {COMPANY.CompanyName}, и нас наняли, чтобы проверить, есть ли здесь местный представитель. Ты уже несколько недель не выходишь на связь. Здесь все в порядке?</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList8.dialogueContent2.words</t>
+  </si>
+  <si>
+    <t>Everything's fi..***STATIC***</t>
+  </si>
+  <si>
+    <t>Все в поря...***ШУМ***</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList8.dialogueContent3.words</t>
+  </si>
+  <si>
+    <t>Commander! It's a trap! Watch ou...***STATIC***</t>
+  </si>
+  <si>
+    <t>Командир! Это ловушка! Осторож...*** ПОМЕХИ ***</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList8.dialogueContent4.words</t>
+  </si>
+  <si>
+    <t>Damn it! Gun them down now!</t>
+  </si>
+  <si>
+    <t>Черт возьми! Пристрелите их сейчас же!</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList9.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t>It's me again, Commander! I'm going to try and activate the turrets... ***BANG***</t>
+  </si>
+  <si>
+    <t>Это снова я, командир! Я собираюсь попробовать включить турели... *** БАХ ***</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList9.dialogueContent1.words</t>
+  </si>
+  <si>
+    <t>That sorts you out. Thanks for unlocking those turrets for us.</t>
+  </si>
+  <si>
+    <t>Все наладилось. Спасибо, что разблокировали нам турели.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.dialogueList9.dialogueContent2.words</t>
+  </si>
+  <si>
+    <t>Commander, this isn't good. Watch out for those base defenses!</t>
+  </si>
+  <si>
+    <t>Командир, это нехорошо. Следите за обороной базы!</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.longDescription</t>
+  </si>
+  <si>
+    <t>Forward base is a little misleading, Commander. I've heard rumours it's more a spy station. Let's go find out what's going on.</t>
+  </si>
+  <si>
+    <t>Передовая база вводит в заблуждение, командир. Ходят слухи, что это больше шпионская станция. Давайте выясним, что происходит.</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.objectiveList0.title</t>
+  </si>
+  <si>
+    <t>Investigate the Blackout</t>
+  </si>
+  <si>
+    <t>Выясните причину отключения</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.objectiveList1.description</t>
+  </si>
+  <si>
+    <t>Survive the turret trap in alpha base</t>
+  </si>
+  <si>
+    <t>Выжить в ловушке на базе альфа</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.objectiveList1.title</t>
+  </si>
+  <si>
+    <t>Survive the trap</t>
+  </si>
+  <si>
+    <t>Выжить в ловушке</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.objectiveList2.description</t>
+  </si>
+  <si>
+    <t>Follow the trail to the next base</t>
+  </si>
+  <si>
+    <t>Иди по следу до следующей базы</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.objectiveList2.title</t>
+  </si>
+  <si>
+    <t>Follow the Trail</t>
+  </si>
+  <si>
+    <t>Иди по следу</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.objectiveList3.description</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.objectiveList3.title</t>
+  </si>
+  <si>
     <t>Уничтожить отряд вторжения</t>
   </si>
   <si>
-    <t>Blackout_DugInDeep.objectiveList4.description</t>
-  </si>
-  <si>
-    <t>Survive the hacked turrets in bravo base</t>
+    <t>Blackout_HeavyStatic.objectiveList4.description</t>
+  </si>
+  <si>
+    <t>Destroy the lance that is occupying the base</t>
+  </si>
+  <si>
+    <t>Уничтожьте отряд, удерживающий базу</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.objectiveList4.title</t>
+  </si>
+  <si>
+    <t>Destroy occupying lance</t>
+  </si>
+  <si>
+    <t>Уничтожить отряд захватчиков</t>
+  </si>
+  <si>
+    <t>Blackout_HeavyStatic.objectiveList5.description</t>
   </si>
   <si>
     <t>Защитить взломанные турели на базе браво</t>
   </si>
   <si>
-    <t>Blackout_DugInDeep.objectiveList4.title</t>
-  </si>
-  <si>
-    <t>Destroy the hacked base turrets</t>
-  </si>
-  <si>
-    <t>Уничтожьте турели взломанной базы</t>
-  </si>
-  <si>
-    <t>Blackout_DugInDeep.shortDescription</t>
-  </si>
-  <si>
-    <t>Last week, radio coms with a strategic outpost was interrupted mid datastream to one of the remote relays and we've been unable to reestablish contact. Our other units are all tied up, so we need you to make contact and get a sitrep.</t>
-  </si>
-  <si>
-    <t>На прошлой неделе связь с аванпостом была прервана в середине передачи данных к одному из ретрансляторов, мы не смогли восстановить связь. Все наши подразделения заняты, поэтому нам нужно, чтобы вы установили контакт и доложили ситуацию.</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.contractName</t>
-  </si>
-  <si>
-    <t>Heavy Static</t>
-  </si>
-  <si>
-    <t>Тяжелая статика</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList0.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>We've received very little intel on this situation. We just know they went dark and we assume jamming is involved. Careful out there, Commander.</t>
-  </si>
-  <si>
-    <t>Мы получили очень мало разведданных. Мы просто знаем, что они пропали, и, предполагаю, речь идет о помехах. Осторожно, командир.</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList1.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>Great job, Commander! They always say you can't judge these types of contracts.</t>
-  </si>
-  <si>
-    <t>Отличная работа, командир! Они всегда говорят, что о таких контрактах нельзя судить сходу.</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList10.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>It's me again, Commander! I've managed to activate our base defenses. Locked them all shortly before we lost control. Give them hell!</t>
-  </si>
-  <si>
-    <t>Это снова я, командир! Мне удалось активировать оборону базы. Мы заблокировали ее незадолго до того, как потеряли контроль. Задайте им жару!</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList11.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>Commander! Are we glad to see you! {TEAM_EMP.FactionDef.Demonym} forward base {TGT_SYSTEM.name}-Alpha.</t>
-  </si>
-  <si>
-    <t>Командир! Как мы рады вас видеть! {TEAM_EMP.FactionDef.Name} передовая база {TGT_SYSTEM.name}-Альфа.</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList11.dialogueContent1.words</t>
-  </si>
-  <si>
-    <t>We've been holding off assaults on our position for the past few weeks. We've fallen back to this base but we can't hold out for much longer.</t>
-  </si>
-  <si>
-    <t>Последние несколько недель мы сдерживали нападения на нашу позицию. Мы отступили на эту базу, но долго не продержимся.</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList11.dialogueContent2.words</t>
-  </si>
-  <si>
-    <t>Множество контактов! Сближаются!</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList2.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>The loss of that position will come at a bad time for {TEAM_EMP.FactionDef.ShortName}. No good news for us either.</t>
-  </si>
-  <si>
-    <t>Потеря этой позиции наступит в неподходящее время для {TEAM_EMP.FactionDef.ShortName}. Для нас тоже.</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList3.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>Strange. There looks like there's been fighting here but it was a least a few weeks ago. Let's look up on ahead. Maybe we'll find something at the other base.</t>
-  </si>
-  <si>
-    <t>Странно. Похоже, здесь шел бой, но это было, по крайней мере, несколько недель назад. Давайте посмотрим дальше. Может, найдем что-нибудь на другой базе.</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList4.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>What's this?! The turrets are activating. Incoming fire, Commander!</t>
-  </si>
-  <si>
-    <t>Что это?! Турели активируются. Огонь на поражение, командир!</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList5.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>We were told to expect interference. Time to shut you out.</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList5.dialogueContent1.words</t>
-  </si>
-  <si>
-    <t>This isn't good, Commander. You're surrounded!</t>
-  </si>
-  <si>
-    <t>Это нехорошо, командир. Вы окружены!</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList5.dialogueContent2.words</t>
-  </si>
-  <si>
-    <t>Hey! That base's automated turrets are spinning up. Lucky us!</t>
-  </si>
-  <si>
-    <t>Эй! Автоматические турели этой базы начали вращатся. Нам повезло!</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList6.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList7.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>How did these guys get the jump on us? We've been getting too much bad intel. This is now officially a hot zone. Let's continue our investigation. Expect more OpFor, Commander.</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList8.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>Unidentified BattleMech lance. Declare yourself. You are violating a {TEAM_EMP.FactionDef.Demonym} militarised zone</t>
-  </si>
-  <si>
-    <t>Неопознанное копье мехов. Обозначте себя. Вы нарушаете миллитаризированную зону {TEAM_EMP.FactionDef.Name}</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList8.dialogueContent1.words</t>
-  </si>
-  <si>
-    <t>{TEAM_EMP.FactionDef.Demonym} radio operator. We are {COMPANY.CompanyName} and have been hired to check the sit rep here. You've been out of contact for weeks. Everything ok here?</t>
-  </si>
-  <si>
-    <t>{TEAM_EMP.FactionDef.Name} радист. Мы - {COMPANY.CompanyName}, и нас наняли, чтобы проверить, есть ли здесь местный представитель. nym} радист. Мы-КОМПАНИЯ.CompanyName} и были наняты для проверки сидячего представителя здесь. Ты уже несколько недель не выходишь на связь. Здесь все в порядке?</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList8.dialogueContent2.words</t>
-  </si>
-  <si>
-    <t>Everything's fi..***STATIC***</t>
-  </si>
-  <si>
-    <t>Все в поря...***ШУМ***</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList8.dialogueContent3.words</t>
-  </si>
-  <si>
-    <t>Commander! It's a trap! Watch ou...***STATIC***</t>
-  </si>
-  <si>
-    <t>Командир! Это ловушка! Осторож...*** ПОМЕХИ ***</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList8.dialogueContent4.words</t>
-  </si>
-  <si>
-    <t>Damn it! Gun them down now!</t>
-  </si>
-  <si>
-    <t>Черт возьми! Пристрелите их сейчас же!</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList9.dialogueContent0.words</t>
-  </si>
-  <si>
-    <t>It's me again, Commander! I'm going to try and activate the turrets... ***BANG***</t>
-  </si>
-  <si>
-    <t>Это снова я, командир! Я собираюсь попробовать включить турели... *** БАХ ***</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList9.dialogueContent1.words</t>
-  </si>
-  <si>
-    <t>That sorts you out. Thanks for unlocking those turrets for us.</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.dialogueList9.dialogueContent2.words</t>
-  </si>
-  <si>
-    <t>Commander, this isn't good. Watch out for those base defenses!</t>
-  </si>
-  <si>
-    <t>Командир, это нехорошо. Следите за обороной базы!</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.longDescription</t>
-  </si>
-  <si>
-    <t>Forward base is a little misleading, Commander. I've heard rumours it's more a spy station. Let's go find out what's going on.</t>
-  </si>
-  <si>
-    <t>Передовая база вводит в заблуждение, командир. Ходят слухи, что это больше шпионская станция. Давайте выясним, что происходит.</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.objectiveList0.title</t>
-  </si>
-  <si>
-    <t>Investigate the Blackout</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.objectiveList1.description</t>
-  </si>
-  <si>
-    <t>Survive the turret trap in alpha base</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.objectiveList1.title</t>
-  </si>
-  <si>
-    <t>Survive the trap</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.objectiveList2.description</t>
-  </si>
-  <si>
-    <t>Follow the trail to the next base</t>
-  </si>
-  <si>
-    <t>Иди по следу до следующей базы</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.objectiveList2.title</t>
-  </si>
-  <si>
-    <t>Follow the Trail</t>
-  </si>
-  <si>
-    <t>Иди по следу</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.objectiveList3.description</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.objectiveList3.title</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.objectiveList4.description</t>
-  </si>
-  <si>
-    <t>Destroy the lance that is occupying the base</t>
-  </si>
-  <si>
-    <t>Уничтожьте отряд, удерживающий базу</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.objectiveList4.title</t>
-  </si>
-  <si>
-    <t>Destroy occupying lance</t>
-  </si>
-  <si>
-    <t>Уничтожить отряд захватчиков</t>
-  </si>
-  <si>
-    <t>Blackout_HeavyStatic.objectiveList5.description</t>
-  </si>
-  <si>
     <t>Blackout_HeavyStatic.objectiveList5.title</t>
   </si>
   <si>
@@ -553,7 +586,7 @@
     <t>*** DETECTED OCCUPYING FORCE *** ... *** VIRUS DETECTED ON OCCUPYING UNITS *** .... *** ACTIVATING DEVICE NETWORK ***</t>
   </si>
   <si>
-    <t>*** ОБНАРУЖЕНА ОККУПАЦИОННЫЕ СИЛЫ *** ... *** ВИРУС ОБНАРУЖЕН НА ОККУПИРУЮЩИХ ЮНИТАХ*** .... *** АКТИВАЦИЯ СЕТИ УСТРОЙСТВ ***</t>
+    <t>*** ОБНАРУЖЕНЫ ОККУПАЦИОННЫЕ СИЛЫ *** ... *** ОБНАРУЖЕН ВИРУС НА ОККУПАНТАХ *** .... *** АКТИВАЦИЯ СЕТЕВОГО УСТРОЙСТВА ***</t>
   </si>
   <si>
     <t>Blackout_UnknownCause.dialogueList11.dialogueContent0.words</t>
@@ -583,6 +616,9 @@
     <t>This virus will be a problem now, Commander. Let's get you back.</t>
   </si>
   <si>
+    <t>Этот вирус теперь будет для нас проблемой, командир. Давайте-ка вернем вас назад.</t>
+  </si>
+  <si>
     <t>Blackout_UnknownCause.dialogueList3.dialogueContent0.words</t>
   </si>
   <si>
@@ -598,7 +634,7 @@
     <t>*** DETECTED UNKNOWN FORCE *** ... *** VIRUS BREACH DETECTED *** .... *** ACTIVATING DEVICE NETWORK ***</t>
   </si>
   <si>
-    <t>*** ОБНАРУЖЕНА НЕИЗВЕСТНАЯ СИЛА *** ... *** ОБНАРУЖЕНО РАСПРОСТРАНЕНИЕ ВИРУСА *** .... *** АКТИВАЦИЯ СЕТИ УСТРОЙСТВ ***</t>
+    <t>*** ОБНАРУЖЕНЫ НЕИЗВЕСТНЫЕ СИЛЫ *** ... *** ОБНАРУЖЕНО РАСПРОСТРАНЕНИЕ ВИРУСА *** .... *** АКТИВАЦИЯ СЕТЕВОГО УСТРОЙСТВА ***</t>
   </si>
   <si>
     <t>Blackout_UnknownCause.dialogueList4.dialogueContent1.words</t>
@@ -634,7 +670,7 @@
     <t>*** DETECTED UNKNOWN FORCE *** ... *** VIRUS DETECTED *** .... *** ACTIVATING DEVICE NETWORK ***</t>
   </si>
   <si>
-    <t>*** ОБНАРУЖЕНА НЕИЗВЕСТНАЯ СИЛА *** ... *** ОБНАРУЖЕН ВИРУС *** .... *** АКТИВАЦИЯ СЕТИ УСТРОЙСТВ ***</t>
+    <t>*** ОБНАРУЖЕНЫ НЕИЗВЕСТНЫЕ СИЛЫ *** ... *** ОБНАРУЖЕН ВИРУС *** .... *** АКТИВАЦИЯ СЕТЕВОГО УСТРОЙСТВА ***</t>
   </si>
   <si>
     <t>Blackout_UnknownCause.dialogueList6.dialogueContent0.words</t>
@@ -796,6 +832,9 @@
     <t>Way to go, Commander! I even managed to record that for the crew's holovid room!</t>
   </si>
   <si>
+    <t>Так держать, командир! Мне даже удалось записать это для нашей головид комнаты!</t>
+  </si>
+  <si>
     <t>DuoDuel_AtHighNoon.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
@@ -811,6 +850,9 @@
     <t>Think you Mercfaces canna beat us twos? Hella no. Eat lead.</t>
   </si>
   <si>
+    <t>Думаешь вашим наемничьим рожам удастся нас победить? Черта с два! Жри свинец!</t>
+  </si>
+  <si>
     <t>DuoDuel_AtHighNoon.longDescription</t>
   </si>
   <si>
@@ -1144,7 +1186,7 @@
     <t>You did it! Time to organise the party. We can't let all this go to waste!</t>
   </si>
   <si>
-    <t>Ты сделал это! Пора организовать вечеринку. Мы не можем позволить всему этому пропасть зря!</t>
+    <t>Вы сделали это! Пора организовать вечеринку. Мы не можем позволить всему этому пропасть зря!</t>
   </si>
   <si>
     <t>DuoDuel_YearlyTussle.dialogueList2.dialogueContent0.words</t>
@@ -1198,7 +1240,7 @@
     <t>All Eyes On</t>
   </si>
   <si>
-    <t>Всё внимание на</t>
+    <t>Под пристальным вниманием.</t>
   </si>
   <si>
     <t>SoloDuel_AllEyesOn.dialogueList0.dialogueContent0.words</t>
@@ -1252,6 +1294,9 @@
     <t>Overcome the test subject</t>
   </si>
   <si>
+    <t>Победите испытуемого</t>
+  </si>
+  <si>
     <t>SoloDuel_AllEyesOn.shortDescription</t>
   </si>
   <si>
@@ -1267,7 +1312,7 @@
     <t>A Taste For War</t>
   </si>
   <si>
-    <t>Вкус к войне</t>
+    <t>Вкус войны</t>
   </si>
   <si>
     <t>SoloDuel_ATasteForWar.dialogueList0.dialogueContent0.words</t>
@@ -1324,7 +1369,7 @@
     <t>A prized {TEAM_TAR.FactionDef.Demonym} Gladiator has challenged you to solo combat, Commander. The holovid rights have already been sold to the highest bidder and we've already been wired a cut. We can't turn this chance down so we hope you can't too! We'll throw in the holo-vid footage for {COMPANY.CompanyName}'s promotional vids.</t>
   </si>
   <si>
-    <t>Призёр {TEAM_TAR.FactionDef.Name} Гладиатор вызвал вас на поединок, командир. Права на головид уже проданы тому, кто предложил самую высокую цену, и мы уже получили долю. Мы не можем отказаться от этого шанса, поэтому мы надеемся, что вы тоже не упустите! Мы добавим голо-вид материалы для рекламных роликов компании {COMPANY.CompanyName}.</t>
+    <t>Награждённый гладиатор из {TEAM_TAR.FactionDef.Name} вызвал вас на поединок, командир. Права на головидео уже проданы тому, кто предложил самую высокую цену и мы будем иметь с этого долю. Не хотелось бы отказываться от такого шанса, надеюсь вы со мной согласны. А из головидео потом можно будет нарезать крутые промо-ролики для рекламы {COMPANY.CompanyName}.</t>
   </si>
   <si>
     <t>SoloDuel_ChallengeAccepted.contractName</t>
@@ -1342,7 +1387,7 @@
     <t>That's the one, Commander. Take him out.</t>
   </si>
   <si>
-    <t>Это тот, командир. Убери его.</t>
+    <t>Вот он, командир. Убери его.</t>
   </si>
   <si>
     <t>SoloDuel_ChallengeAccepted.dialogueList1.dialogueContent0.words</t>
@@ -1554,7 +1599,7 @@
     <t>A rich {TEAM_EMP.FactionDef.Demonym} business man has requested that we show his arrogant step-son what real fighting feels like. We thought {COMPANY.CompanyName} could help us here. Don't hold back. This father wants to teach a real life lesson - especially for his {TEAM_TAR.FactionDef.Demonym} side of the family.</t>
   </si>
   <si>
-    <t>Богатый бизнесмен {TEAM_EMP.FactionDef.Name} попросил, чтобы мы показали его высокомерному пасынку, что такое настоящая борьба. Мы подумали, что {COMPANY.CompanyName} может нам здесь помочь. Не сдерживайся. Этот отец хочет преподать урок из реальной жизни - особенно для своих {TEAM_TAR.FactionDef.Name} родственников.</t>
+    <t>Богатый бизнесмен {TEAM_EMP.FactionDef.Name} попросил нас, чтобы мы показали его высокомерному приёмному сыну, что такое настоящая битва. Мы подумали, что {COMPANY.CompanyName} может нам здесь помочь. Можете бить в полную силу. Его отец хочет преподать урок реальной жизни - особенно для родственников из {TEAM_TAR.FactionDef.Name}.</t>
   </si>
   <si>
     <t>SoloDuel_ProxyWar.contractName</t>
@@ -1653,12 +1698,17 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1678,13 +1728,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1979,18 +2031,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="78.85546875" customWidth="1" style="2"/>
     <col min="4" max="4" width="13.28515625" customWidth="1" style="2"/>
-    <col min="5" max="6" width="9.140625" customWidth="1" style="2"/>
-    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="9" width="9.140625" customWidth="1" style="2"/>
+    <col min="10" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2000,7 +2052,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2">
@@ -2014,7 +2066,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
@@ -2028,7 +2080,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2">
@@ -2042,7 +2094,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2">
@@ -2056,8 +2108,8 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
@@ -2065,13 +2117,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -2079,13 +2131,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>7</v>
@@ -2093,13 +2145,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>8</v>
@@ -2107,13 +2159,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>9</v>
@@ -2121,13 +2173,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -2135,13 +2187,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
@@ -2149,13 +2201,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="2">
         <v>12</v>
@@ -2163,13 +2215,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
@@ -2177,13 +2229,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -2191,13 +2243,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="2">
         <v>15</v>
@@ -2205,13 +2257,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E16" s="2">
         <v>16</v>
@@ -2219,13 +2271,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E17" s="2">
         <v>17</v>
@@ -2233,13 +2285,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E18" s="2">
         <v>18</v>
@@ -2247,13 +2299,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="2">
         <v>19</v>
@@ -2261,13 +2313,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E20" s="2">
         <v>20</v>
@@ -2275,13 +2327,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E21" s="2">
         <v>21</v>
@@ -2289,13 +2341,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>60</v>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E22" s="2">
         <v>22</v>
@@ -2303,13 +2355,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E23" s="2">
         <v>23</v>
@@ -2317,13 +2369,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="2">
         <v>24</v>
@@ -2331,13 +2383,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E25" s="2">
         <v>25</v>
@@ -2345,13 +2397,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E26" s="2">
         <v>26</v>
@@ -2359,13 +2411,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E27" s="2">
         <v>27</v>
@@ -2373,13 +2425,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E28" s="2">
         <v>28</v>
@@ -2387,13 +2439,13 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E29" s="2">
         <v>29</v>
@@ -2401,13 +2453,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="E30" s="2">
         <v>30</v>
@@ -2415,13 +2467,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E31" s="2">
         <v>31</v>
@@ -2429,13 +2481,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E32" s="2">
         <v>32</v>
@@ -2443,13 +2495,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E33" s="2">
         <v>33</v>
@@ -2457,13 +2509,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E34" s="2">
         <v>34</v>
@@ -2471,13 +2523,13 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="E35" s="2">
         <v>35</v>
@@ -2485,13 +2537,13 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E36" s="2">
         <v>36</v>
@@ -2499,13 +2551,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E37" s="2">
         <v>37</v>
@@ -2513,13 +2565,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E38" s="2">
         <v>38</v>
@@ -2527,13 +2579,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E39" s="2">
         <v>39</v>
@@ -2541,13 +2593,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E40" s="2">
         <v>40</v>
@@ -2555,13 +2607,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E41" s="2">
         <v>41</v>
@@ -2569,13 +2621,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E42" s="2">
         <v>42</v>
@@ -2583,13 +2635,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E43" s="2">
         <v>43</v>
@@ -2597,13 +2649,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E44" s="2">
         <v>44</v>
@@ -2611,13 +2663,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E45" s="2">
         <v>45</v>
@@ -2625,13 +2677,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="E46" s="2">
         <v>46</v>
@@ -2639,13 +2691,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E47" s="2">
         <v>47</v>
@@ -2653,13 +2705,13 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E48" s="2">
         <v>48</v>
@@ -2667,13 +2719,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E49" s="2">
         <v>49</v>
@@ -2681,13 +2733,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="E50" s="2">
         <v>50</v>
@@ -2695,13 +2747,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E51" s="2">
         <v>51</v>
@@ -2709,13 +2761,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E52" s="2">
         <v>52</v>
@@ -2723,13 +2775,13 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E53" s="2">
         <v>53</v>
@@ -2737,13 +2789,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E54" s="2">
         <v>54</v>
@@ -2751,13 +2803,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="E55" s="2">
         <v>55</v>
@@ -2765,13 +2817,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="E56" s="2">
         <v>56</v>
@@ -2779,13 +2831,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E57" s="2">
         <v>57</v>
@@ -2793,13 +2845,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="E58" s="2">
         <v>58</v>
@@ -2807,13 +2859,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E59" s="2">
         <v>59</v>
@@ -2821,13 +2873,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="E60" s="2">
         <v>60</v>
@@ -2835,13 +2887,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E61" s="2">
         <v>61</v>
@@ -2849,13 +2901,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E62" s="2">
         <v>62</v>
@@ -2863,13 +2915,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="E63" s="2">
         <v>63</v>
@@ -2877,13 +2929,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E64" s="2">
         <v>64</v>
@@ -2891,13 +2943,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E65" s="2">
         <v>65</v>
@@ -2905,13 +2957,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E66" s="2">
         <v>66</v>
@@ -2919,13 +2971,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="E67" s="2">
         <v>67</v>
@@ -2933,13 +2985,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="E68" s="2">
         <v>68</v>
@@ -2947,13 +2999,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="E69" s="2">
         <v>69</v>
@@ -2961,13 +3013,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E70" s="2">
         <v>70</v>
@@ -2975,13 +3027,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="E71" s="2">
         <v>71</v>
@@ -2989,13 +3041,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="E72" s="2">
         <v>72</v>
@@ -3003,13 +3055,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E73" s="2">
         <v>73</v>
@@ -3017,13 +3069,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="E74" s="2">
         <v>74</v>
@@ -3031,13 +3083,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E75" s="2">
         <v>75</v>
@@ -3045,13 +3097,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="E76" s="2">
         <v>76</v>
@@ -3059,13 +3111,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="E77" s="2">
         <v>77</v>
@@ -3073,13 +3125,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>209</v>
+        <v>220</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="E78" s="2">
         <v>78</v>
@@ -3087,13 +3139,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="E79" s="2">
         <v>79</v>
@@ -3101,13 +3153,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="E80" s="2">
         <v>80</v>
@@ -3115,13 +3167,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="E81" s="2">
         <v>81</v>
@@ -3129,13 +3181,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E82" s="2">
         <v>82</v>
@@ -3143,13 +3195,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="E83" s="2">
         <v>83</v>
@@ -3157,13 +3209,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="E84" s="2">
         <v>84</v>
@@ -3171,13 +3223,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="E85" s="2">
         <v>85</v>
@@ -3185,13 +3237,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="E86" s="2">
         <v>86</v>
@@ -3199,13 +3251,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="E87" s="2">
         <v>87</v>
@@ -3213,13 +3265,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="E88" s="2">
         <v>88</v>
@@ -3227,13 +3279,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="E89" s="2">
         <v>89</v>
@@ -3241,13 +3293,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E90" s="2">
         <v>90</v>
@@ -3255,13 +3307,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="E91" s="2">
         <v>91</v>
@@ -3269,13 +3321,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E92" s="2">
         <v>92</v>
@@ -3283,13 +3335,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="E93" s="2">
         <v>93</v>
@@ -3297,13 +3349,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E94" s="2">
         <v>94</v>
@@ -3311,13 +3363,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E95" s="2">
         <v>95</v>
@@ -3325,13 +3377,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="E96" s="2">
         <v>96</v>
@@ -3339,13 +3391,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="E97" s="2">
         <v>97</v>
@@ -3353,13 +3405,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E98" s="2">
         <v>98</v>
@@ -3367,13 +3419,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E99" s="2">
         <v>99</v>
@@ -3381,13 +3433,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="E100" s="2">
         <v>100</v>
@@ -3395,13 +3447,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>264</v>
+        <v>277</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="E101" s="2">
         <v>101</v>
@@ -3409,13 +3461,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="E102" s="2">
         <v>102</v>
@@ -3423,13 +3475,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>270</v>
+        <v>283</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="E103" s="2">
         <v>103</v>
@@ -3437,13 +3489,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="E104" s="2">
         <v>104</v>
@@ -3451,13 +3503,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="E105" s="2">
         <v>105</v>
@@ -3465,13 +3517,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="E106" s="2">
         <v>106</v>
@@ -3479,13 +3531,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>282</v>
+        <v>295</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="E107" s="2">
         <v>107</v>
@@ -3493,13 +3545,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>285</v>
+        <v>298</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="E108" s="2">
         <v>108</v>
@@ -3507,13 +3559,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="E109" s="2">
         <v>109</v>
@@ -3521,13 +3573,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>291</v>
+        <v>304</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="E110" s="2">
         <v>110</v>
@@ -3535,13 +3587,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>294</v>
+        <v>307</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="E111" s="2">
         <v>111</v>
@@ -3549,13 +3601,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>297</v>
+        <v>310</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="E112" s="2">
         <v>112</v>
@@ -3563,13 +3615,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="E113" s="2">
         <v>113</v>
@@ -3577,13 +3629,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="E114" s="2">
         <v>114</v>
@@ -3591,13 +3643,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>306</v>
+        <v>319</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="E115" s="2">
         <v>115</v>
@@ -3605,13 +3657,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>309</v>
+        <v>322</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="E116" s="2">
         <v>116</v>
@@ -3619,13 +3671,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>312</v>
+        <v>325</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="E117" s="2">
         <v>117</v>
@@ -3633,13 +3685,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="E118" s="2">
         <v>118</v>
@@ -3647,13 +3699,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>318</v>
+        <v>331</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="E119" s="2">
         <v>119</v>
@@ -3661,13 +3713,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>321</v>
+        <v>334</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E120" s="2">
         <v>120</v>
@@ -3675,13 +3727,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>324</v>
+        <v>337</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="E121" s="2">
         <v>121</v>
@@ -3689,13 +3741,13 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>327</v>
+        <v>340</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="E122" s="2">
         <v>122</v>
@@ -3703,13 +3755,13 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>330</v>
+        <v>343</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="E123" s="2">
         <v>123</v>
@@ -3717,13 +3769,13 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>333</v>
+        <v>346</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="E124" s="2">
         <v>124</v>
@@ -3731,13 +3783,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>336</v>
+        <v>349</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="E125" s="2">
         <v>125</v>
@@ -3745,13 +3797,13 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>339</v>
+        <v>352</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="E126" s="2">
         <v>126</v>
@@ -3759,13 +3811,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>342</v>
+        <v>355</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="E127" s="2">
         <v>127</v>
@@ -3773,13 +3825,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>345</v>
+        <v>358</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="E128" s="2">
         <v>128</v>
@@ -3787,13 +3839,13 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>348</v>
+        <v>361</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="E129" s="2">
         <v>129</v>
@@ -3801,13 +3853,13 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="E130" s="2">
         <v>130</v>
@@ -3815,13 +3867,13 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>354</v>
+        <v>367</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="E131" s="2">
         <v>131</v>
@@ -3829,13 +3881,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>357</v>
+        <v>370</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="E132" s="2">
         <v>132</v>
@@ -3843,13 +3895,13 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>360</v>
+        <v>373</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="E133" s="2">
         <v>133</v>
@@ -3857,13 +3909,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>363</v>
+        <v>376</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="E134" s="2">
         <v>134</v>
@@ -3871,13 +3923,13 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>342</v>
+        <v>355</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="E135" s="2">
         <v>135</v>
@@ -3885,13 +3937,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>367</v>
+        <v>380</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="E136" s="2">
         <v>136</v>
@@ -3899,13 +3951,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>370</v>
+        <v>383</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="E137" s="2">
         <v>137</v>
@@ -3913,13 +3965,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>373</v>
+        <v>386</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="E138" s="2">
         <v>138</v>
@@ -3927,13 +3979,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>376</v>
+        <v>389</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="E139" s="2">
         <v>139</v>
@@ -3941,13 +3993,13 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>379</v>
+        <v>392</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="E140" s="2">
         <v>140</v>
@@ -3955,13 +4007,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>382</v>
+        <v>395</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="E141" s="2">
         <v>141</v>
@@ -3969,13 +4021,13 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>385</v>
+        <v>398</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="E142" s="2">
         <v>142</v>
@@ -3983,13 +4035,13 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>388</v>
+        <v>401</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="E143" s="2">
         <v>143</v>
@@ -3997,13 +4049,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>391</v>
+        <v>404</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="E144" s="2">
         <v>144</v>
@@ -4011,13 +4063,13 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>394</v>
+        <v>407</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="E145" s="2">
         <v>145</v>
@@ -4025,13 +4077,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>397</v>
+        <v>410</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="E146" s="2">
         <v>146</v>
@@ -4039,13 +4091,13 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>400</v>
+        <v>413</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="E147" s="2">
         <v>147</v>
@@ -4053,13 +4105,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>403</v>
+        <v>416</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="E148" s="2">
         <v>148</v>
@@ -4067,13 +4119,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>406</v>
+        <v>419</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="E149" s="2">
         <v>149</v>
@@ -4081,13 +4133,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>409</v>
+        <v>422</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="E150" s="2">
         <v>150</v>
@@ -4095,13 +4147,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>411</v>
+        <v>425</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="E151" s="2">
         <v>151</v>
@@ -4109,13 +4161,13 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>414</v>
+        <v>428</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="E152" s="2">
         <v>152</v>
@@ -4123,13 +4175,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>417</v>
+        <v>431</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="E153" s="2">
         <v>153</v>
@@ -4137,13 +4189,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>397</v>
+        <v>410</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="E154" s="2">
         <v>154</v>
@@ -4151,13 +4203,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>421</v>
+        <v>435</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="E155" s="2">
         <v>155</v>
@@ -4165,13 +4217,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>424</v>
+        <v>438</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="E156" s="2">
         <v>156</v>
@@ -4179,13 +4231,13 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>427</v>
+        <v>441</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="E157" s="2">
         <v>157</v>
@@ -4193,13 +4245,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>430</v>
+        <v>444</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="E158" s="2">
         <v>158</v>
@@ -4207,13 +4259,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>433</v>
+        <v>447</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="E159" s="2">
         <v>159</v>
@@ -4221,13 +4273,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>436</v>
+        <v>450</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="E160" s="2">
         <v>160</v>
@@ -4235,13 +4287,13 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>439</v>
+        <v>453</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="E161" s="2">
         <v>161</v>
@@ -4249,13 +4301,13 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>442</v>
+        <v>456</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="E162" s="2">
         <v>162</v>
@@ -4263,13 +4315,13 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>445</v>
+        <v>459</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="E163" s="2">
         <v>163</v>
@@ -4277,13 +4329,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>448</v>
+        <v>462</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="E164" s="2">
         <v>164</v>
@@ -4291,13 +4343,13 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>451</v>
+        <v>465</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="E165" s="2">
         <v>165</v>
@@ -4305,13 +4357,13 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>454</v>
+        <v>468</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="E166" s="2">
         <v>166</v>
@@ -4319,13 +4371,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>457</v>
+        <v>471</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="E167" s="2">
         <v>167</v>
@@ -4333,13 +4385,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>460</v>
+        <v>474</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="E168" s="2">
         <v>168</v>
@@ -4347,13 +4399,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>463</v>
+        <v>477</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="E169" s="2">
         <v>169</v>
@@ -4361,13 +4413,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>466</v>
+        <v>480</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="E170" s="2">
         <v>170</v>
@@ -4375,13 +4427,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>469</v>
+        <v>483</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="E171" s="2">
         <v>171</v>
@@ -4389,13 +4441,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>472</v>
+        <v>486</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="E172" s="2">
         <v>172</v>
@@ -4403,45 +4455,46 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>475</v>
+        <v>489</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="E173" s="2">
         <v>173</v>
       </c>
     </row>
-    <row r="174" s="3" customFormat="1">
-      <c r="A174" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E174" s="3">
+    <row r="174" s="4" customFormat="1">
+      <c r="A174" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E174" s="4">
         <v>174</v>
       </c>
-      <c r="G174" s="3"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="7"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>482</v>
+        <v>496</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="E175" s="2">
         <v>175</v>
@@ -4449,13 +4502,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>485</v>
+        <v>499</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>500</v>
       </c>
       <c r="E176" s="2">
         <v>176</v>
@@ -4463,13 +4516,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>488</v>
+        <v>502</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>503</v>
       </c>
       <c r="E177" s="2">
         <v>177</v>
@@ -4477,13 +4530,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>491</v>
+        <v>505</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>506</v>
       </c>
       <c r="E178" s="2">
         <v>178</v>
@@ -4491,13 +4544,13 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>494</v>
+        <v>508</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="E179" s="2">
         <v>179</v>
@@ -4505,13 +4558,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>497</v>
+        <v>511</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>512</v>
       </c>
       <c r="E180" s="2">
         <v>180</v>
@@ -4519,13 +4572,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>500</v>
+        <v>514</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="E181" s="2">
         <v>181</v>
@@ -4533,13 +4586,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>503</v>
+        <v>517</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="E182" s="2">
         <v>182</v>
@@ -4547,13 +4600,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>506</v>
+        <v>520</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="E183" s="2">
         <v>183</v>
@@ -4561,13 +4614,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>509</v>
+        <v>523</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>524</v>
       </c>
       <c r="E184" s="2">
         <v>184</v>
@@ -4575,13 +4628,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>512</v>
+        <v>526</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>527</v>
       </c>
       <c r="E185" s="2">
         <v>185</v>
@@ -4589,13 +4642,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>515</v>
+        <v>529</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="E186" s="2">
         <v>186</v>
@@ -4603,13 +4656,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>518</v>
+        <v>532</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="E187" s="2">
         <v>187</v>
@@ -4617,13 +4670,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>521</v>
+        <v>535</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="E188" s="2">
         <v>188</v>
@@ -4631,13 +4684,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>524</v>
+        <v>538</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="E189" s="2">
         <v>189</v>
@@ -4645,45 +4698,46 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>527</v>
+        <v>541</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="E190" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="191" s="3" customFormat="1">
-      <c r="A191" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E191" s="3">
+    <row r="191" s="4" customFormat="1">
+      <c r="A191" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E191" s="4">
         <v>191</v>
       </c>
-      <c r="G191" s="3"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="7"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>533</v>
+        <v>547</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>548</v>
       </c>
       <c r="E192" s="2">
         <v>192</v>
@@ -4691,13 +4745,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>536</v>
+        <v>550</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="E193" s="2">
         <v>193</v>

--- a/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
@@ -1698,17 +1698,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1728,7 +1723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1736,7 +1731,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2031,18 +2025,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="78.85546875" customWidth="1" style="2"/>
     <col min="4" max="4" width="13.28515625" customWidth="1" style="2"/>
-    <col min="5" max="9" width="9.140625" customWidth="1" style="2"/>
-    <col min="10" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="10" width="9.140625" customWidth="1" style="2"/>
+    <col min="11" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4483,8 +4477,11 @@
       <c r="E174" s="4">
         <v>174</v>
       </c>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
       <c r="I174" s="4"/>
-      <c r="J174" s="7"/>
+      <c r="K174" s="4"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
@@ -4726,8 +4723,11 @@
       <c r="E191" s="4">
         <v>191</v>
       </c>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
       <c r="I191" s="4"/>
-      <c r="J191" s="7"/>
+      <c r="K191" s="4"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">

--- a/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
@@ -1723,8 +1723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="6">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -2025,18 +2024,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:L193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="78.85546875" customWidth="1" style="2"/>
     <col min="4" max="4" width="13.28515625" customWidth="1" style="2"/>
-    <col min="5" max="10" width="9.140625" customWidth="1" style="2"/>
-    <col min="11" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="11" width="9.140625" customWidth="1" style="2"/>
+    <col min="12" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2046,7 +2045,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2">
@@ -2060,7 +2059,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
@@ -2074,7 +2073,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2">
@@ -2088,7 +2087,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2">
@@ -2102,7 +2101,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2">
@@ -2116,7 +2115,7 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2">
@@ -2130,7 +2129,7 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2">
@@ -2144,7 +2143,7 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2">
@@ -2158,7 +2157,7 @@
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="2">
@@ -2172,7 +2171,7 @@
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="2">
@@ -2186,7 +2185,7 @@
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2">
@@ -2200,7 +2199,7 @@
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="2">
@@ -2214,7 +2213,7 @@
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="2">
@@ -2228,7 +2227,7 @@
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2">
@@ -2242,7 +2241,7 @@
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="2">
@@ -2256,7 +2255,7 @@
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="2">
@@ -2270,7 +2269,7 @@
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2">
@@ -2284,7 +2283,7 @@
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2">
@@ -2298,7 +2297,7 @@
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="2">
@@ -2312,7 +2311,7 @@
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="2">
@@ -2326,7 +2325,7 @@
       <c r="B21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="2">
@@ -2340,7 +2339,7 @@
       <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="2">
@@ -2354,7 +2353,7 @@
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="2">
@@ -2368,7 +2367,7 @@
       <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="2">
@@ -2382,7 +2381,7 @@
       <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="2">
@@ -2396,7 +2395,7 @@
       <c r="B26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="2">
@@ -2410,7 +2409,7 @@
       <c r="B27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="2">
@@ -2424,7 +2423,7 @@
       <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E28" s="2">
@@ -2438,7 +2437,7 @@
       <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="2">
@@ -2452,7 +2451,7 @@
       <c r="B30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="2">
@@ -2466,7 +2465,7 @@
       <c r="B31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E31" s="2">
@@ -2480,7 +2479,7 @@
       <c r="B32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="2">
@@ -2494,7 +2493,7 @@
       <c r="B33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="2">
@@ -2508,7 +2507,7 @@
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E34" s="2">
@@ -2522,7 +2521,7 @@
       <c r="B35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E35" s="2">
@@ -2536,7 +2535,7 @@
       <c r="B36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E36" s="2">
@@ -2550,7 +2549,7 @@
       <c r="B37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E37" s="2">
@@ -2564,7 +2563,7 @@
       <c r="B38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E38" s="2">
@@ -2578,7 +2577,7 @@
       <c r="B39" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E39" s="2">
@@ -2592,7 +2591,7 @@
       <c r="B40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E40" s="2">
@@ -2606,7 +2605,7 @@
       <c r="B41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E41" s="2">
@@ -2620,7 +2619,7 @@
       <c r="B42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E42" s="2">
@@ -2634,7 +2633,7 @@
       <c r="B43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E43" s="2">
@@ -2648,7 +2647,7 @@
       <c r="B44" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E44" s="2">
@@ -2662,7 +2661,7 @@
       <c r="B45" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E45" s="2">
@@ -2676,7 +2675,7 @@
       <c r="B46" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E46" s="2">
@@ -2690,7 +2689,7 @@
       <c r="B47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E47" s="2">
@@ -2704,7 +2703,7 @@
       <c r="B48" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="2">
@@ -2718,7 +2717,7 @@
       <c r="B49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E49" s="2">
@@ -2732,7 +2731,7 @@
       <c r="B50" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E50" s="2">
@@ -2746,7 +2745,7 @@
       <c r="B51" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E51" s="2">
@@ -2760,7 +2759,7 @@
       <c r="B52" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E52" s="2">
@@ -2774,7 +2773,7 @@
       <c r="B53" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E53" s="2">
@@ -2788,7 +2787,7 @@
       <c r="B54" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E54" s="2">
@@ -2802,7 +2801,7 @@
       <c r="B55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E55" s="2">
@@ -2816,7 +2815,7 @@
       <c r="B56" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E56" s="2">
@@ -2830,7 +2829,7 @@
       <c r="B57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E57" s="2">
@@ -2844,7 +2843,7 @@
       <c r="B58" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E58" s="2">
@@ -2858,7 +2857,7 @@
       <c r="B59" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E59" s="2">
@@ -2872,7 +2871,7 @@
       <c r="B60" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E60" s="2">
@@ -2886,7 +2885,7 @@
       <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>174</v>
       </c>
       <c r="E61" s="2">
@@ -2900,7 +2899,7 @@
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E62" s="2">
@@ -2914,7 +2913,7 @@
       <c r="B63" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E63" s="2">
@@ -2928,7 +2927,7 @@
       <c r="B64" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E64" s="2">
@@ -2942,7 +2941,7 @@
       <c r="B65" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E65" s="2">
@@ -2956,7 +2955,7 @@
       <c r="B66" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E66" s="2">
@@ -2970,7 +2969,7 @@
       <c r="B67" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>190</v>
       </c>
       <c r="E67" s="2">
@@ -2984,7 +2983,7 @@
       <c r="B68" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E68" s="2">
@@ -2998,7 +2997,7 @@
       <c r="B69" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E69" s="2">
@@ -3012,7 +3011,7 @@
       <c r="B70" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="2">
@@ -3026,7 +3025,7 @@
       <c r="B71" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E71" s="2">
@@ -3040,7 +3039,7 @@
       <c r="B72" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E72" s="2">
@@ -3054,7 +3053,7 @@
       <c r="B73" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E73" s="2">
@@ -3068,7 +3067,7 @@
       <c r="B74" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E74" s="2">
@@ -3082,7 +3081,7 @@
       <c r="B75" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>212</v>
       </c>
       <c r="E75" s="2">
@@ -3096,7 +3095,7 @@
       <c r="B76" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E76" s="2">
@@ -3110,7 +3109,7 @@
       <c r="B77" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E77" s="2">
@@ -3124,7 +3123,7 @@
       <c r="B78" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E78" s="2">
@@ -3138,7 +3137,7 @@
       <c r="B79" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E79" s="2">
@@ -3152,7 +3151,7 @@
       <c r="B80" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>227</v>
       </c>
       <c r="E80" s="2">
@@ -3166,7 +3165,7 @@
       <c r="B81" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>230</v>
       </c>
       <c r="E81" s="2">
@@ -3180,7 +3179,7 @@
       <c r="B82" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E82" s="2">
@@ -3194,7 +3193,7 @@
       <c r="B83" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>236</v>
       </c>
       <c r="E83" s="2">
@@ -3208,7 +3207,7 @@
       <c r="B84" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E84" s="2">
@@ -3222,7 +3221,7 @@
       <c r="B85" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E85" s="2">
@@ -3236,7 +3235,7 @@
       <c r="B86" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E86" s="2">
@@ -3250,7 +3249,7 @@
       <c r="B87" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>248</v>
       </c>
       <c r="E87" s="2">
@@ -3264,7 +3263,7 @@
       <c r="B88" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>251</v>
       </c>
       <c r="E88" s="2">
@@ -3278,7 +3277,7 @@
       <c r="B89" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E89" s="2">
@@ -3292,7 +3291,7 @@
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E90" s="2">
@@ -3306,7 +3305,7 @@
       <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E91" s="2">
@@ -3320,7 +3319,7 @@
       <c r="B92" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E92" s="2">
@@ -3334,7 +3333,7 @@
       <c r="B93" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E93" s="2">
@@ -3348,7 +3347,7 @@
       <c r="B94" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>174</v>
       </c>
       <c r="E94" s="2">
@@ -3362,7 +3361,7 @@
       <c r="B95" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E95" s="2">
@@ -3376,7 +3375,7 @@
       <c r="B96" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E96" s="2">
@@ -3390,7 +3389,7 @@
       <c r="B97" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>266</v>
       </c>
       <c r="E97" s="2">
@@ -3404,7 +3403,7 @@
       <c r="B98" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>269</v>
       </c>
       <c r="E98" s="2">
@@ -3418,7 +3417,7 @@
       <c r="B99" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E99" s="2">
@@ -3432,7 +3431,7 @@
       <c r="B100" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E100" s="2">
@@ -3446,7 +3445,7 @@
       <c r="B101" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E101" s="2">
@@ -3460,7 +3459,7 @@
       <c r="B102" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>281</v>
       </c>
       <c r="E102" s="2">
@@ -3474,7 +3473,7 @@
       <c r="B103" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>284</v>
       </c>
       <c r="E103" s="2">
@@ -3488,7 +3487,7 @@
       <c r="B104" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>287</v>
       </c>
       <c r="E104" s="2">
@@ -3502,7 +3501,7 @@
       <c r="B105" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>290</v>
       </c>
       <c r="E105" s="2">
@@ -3516,7 +3515,7 @@
       <c r="B106" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>293</v>
       </c>
       <c r="E106" s="2">
@@ -3530,7 +3529,7 @@
       <c r="B107" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E107" s="2">
@@ -3544,7 +3543,7 @@
       <c r="B108" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>299</v>
       </c>
       <c r="E108" s="2">
@@ -3558,7 +3557,7 @@
       <c r="B109" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>302</v>
       </c>
       <c r="E109" s="2">
@@ -3572,7 +3571,7 @@
       <c r="B110" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>305</v>
       </c>
       <c r="E110" s="2">
@@ -3586,7 +3585,7 @@
       <c r="B111" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>308</v>
       </c>
       <c r="E111" s="2">
@@ -3600,7 +3599,7 @@
       <c r="B112" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>311</v>
       </c>
       <c r="E112" s="2">
@@ -3614,7 +3613,7 @@
       <c r="B113" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>314</v>
       </c>
       <c r="E113" s="2">
@@ -3628,7 +3627,7 @@
       <c r="B114" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>317</v>
       </c>
       <c r="E114" s="2">
@@ -3642,7 +3641,7 @@
       <c r="B115" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>320</v>
       </c>
       <c r="E115" s="2">
@@ -3656,7 +3655,7 @@
       <c r="B116" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>323</v>
       </c>
       <c r="E116" s="2">
@@ -3670,7 +3669,7 @@
       <c r="B117" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>326</v>
       </c>
       <c r="E117" s="2">
@@ -3684,7 +3683,7 @@
       <c r="B118" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>329</v>
       </c>
       <c r="E118" s="2">
@@ -3698,7 +3697,7 @@
       <c r="B119" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>332</v>
       </c>
       <c r="E119" s="2">
@@ -3712,7 +3711,7 @@
       <c r="B120" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>335</v>
       </c>
       <c r="E120" s="2">
@@ -3726,7 +3725,7 @@
       <c r="B121" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>338</v>
       </c>
       <c r="E121" s="2">
@@ -3740,7 +3739,7 @@
       <c r="B122" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E122" s="2">
@@ -3754,7 +3753,7 @@
       <c r="B123" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>344</v>
       </c>
       <c r="E123" s="2">
@@ -3768,7 +3767,7 @@
       <c r="B124" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>347</v>
       </c>
       <c r="E124" s="2">
@@ -3782,7 +3781,7 @@
       <c r="B125" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>350</v>
       </c>
       <c r="E125" s="2">
@@ -3796,7 +3795,7 @@
       <c r="B126" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>353</v>
       </c>
       <c r="E126" s="2">
@@ -3810,7 +3809,7 @@
       <c r="B127" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E127" s="2">
@@ -3824,7 +3823,7 @@
       <c r="B128" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>359</v>
       </c>
       <c r="E128" s="2">
@@ -3838,7 +3837,7 @@
       <c r="B129" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>362</v>
       </c>
       <c r="E129" s="2">
@@ -3852,7 +3851,7 @@
       <c r="B130" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E130" s="2">
@@ -3866,7 +3865,7 @@
       <c r="B131" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>368</v>
       </c>
       <c r="E131" s="2">
@@ -3880,7 +3879,7 @@
       <c r="B132" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>371</v>
       </c>
       <c r="E132" s="2">
@@ -3894,7 +3893,7 @@
       <c r="B133" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E133" s="2">
@@ -3908,7 +3907,7 @@
       <c r="B134" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E134" s="2">
@@ -3922,7 +3921,7 @@
       <c r="B135" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E135" s="2">
@@ -3936,7 +3935,7 @@
       <c r="B136" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E136" s="2">
@@ -3950,7 +3949,7 @@
       <c r="B137" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>384</v>
       </c>
       <c r="E137" s="2">
@@ -3964,7 +3963,7 @@
       <c r="B138" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E138" s="2">
@@ -3978,7 +3977,7 @@
       <c r="B139" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="2" t="s">
         <v>390</v>
       </c>
       <c r="E139" s="2">
@@ -3992,7 +3991,7 @@
       <c r="B140" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="2" t="s">
         <v>393</v>
       </c>
       <c r="E140" s="2">
@@ -4006,7 +4005,7 @@
       <c r="B141" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E141" s="2">
@@ -4020,7 +4019,7 @@
       <c r="B142" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>399</v>
       </c>
       <c r="E142" s="2">
@@ -4034,7 +4033,7 @@
       <c r="B143" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>402</v>
       </c>
       <c r="E143" s="2">
@@ -4048,7 +4047,7 @@
       <c r="B144" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>405</v>
       </c>
       <c r="E144" s="2">
@@ -4062,7 +4061,7 @@
       <c r="B145" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E145" s="2">
@@ -4076,7 +4075,7 @@
       <c r="B146" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>411</v>
       </c>
       <c r="E146" s="2">
@@ -4090,7 +4089,7 @@
       <c r="B147" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E147" s="2">
@@ -4104,7 +4103,7 @@
       <c r="B148" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>417</v>
       </c>
       <c r="E148" s="2">
@@ -4118,7 +4117,7 @@
       <c r="B149" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>420</v>
       </c>
       <c r="E149" s="2">
@@ -4132,7 +4131,7 @@
       <c r="B150" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>423</v>
       </c>
       <c r="E150" s="2">
@@ -4146,7 +4145,7 @@
       <c r="B151" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>426</v>
       </c>
       <c r="E151" s="2">
@@ -4160,7 +4159,7 @@
       <c r="B152" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="2" t="s">
         <v>429</v>
       </c>
       <c r="E152" s="2">
@@ -4174,7 +4173,7 @@
       <c r="B153" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E153" s="2">
@@ -4188,7 +4187,7 @@
       <c r="B154" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="2" t="s">
         <v>411</v>
       </c>
       <c r="E154" s="2">
@@ -4202,7 +4201,7 @@
       <c r="B155" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="2" t="s">
         <v>436</v>
       </c>
       <c r="E155" s="2">
@@ -4216,7 +4215,7 @@
       <c r="B156" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="2" t="s">
         <v>439</v>
       </c>
       <c r="E156" s="2">
@@ -4230,7 +4229,7 @@
       <c r="B157" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>442</v>
       </c>
       <c r="E157" s="2">
@@ -4244,7 +4243,7 @@
       <c r="B158" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>445</v>
       </c>
       <c r="E158" s="2">
@@ -4258,7 +4257,7 @@
       <c r="B159" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>448</v>
       </c>
       <c r="E159" s="2">
@@ -4272,7 +4271,7 @@
       <c r="B160" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>451</v>
       </c>
       <c r="E160" s="2">
@@ -4286,7 +4285,7 @@
       <c r="B161" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>454</v>
       </c>
       <c r="E161" s="2">
@@ -4300,7 +4299,7 @@
       <c r="B162" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>457</v>
       </c>
       <c r="E162" s="2">
@@ -4314,7 +4313,7 @@
       <c r="B163" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>460</v>
       </c>
       <c r="E163" s="2">
@@ -4328,7 +4327,7 @@
       <c r="B164" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>463</v>
       </c>
       <c r="E164" s="2">
@@ -4342,7 +4341,7 @@
       <c r="B165" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E165" s="2">
@@ -4356,7 +4355,7 @@
       <c r="B166" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>469</v>
       </c>
       <c r="E166" s="2">
@@ -4370,7 +4369,7 @@
       <c r="B167" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="2" t="s">
         <v>472</v>
       </c>
       <c r="E167" s="2">
@@ -4384,7 +4383,7 @@
       <c r="B168" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>475</v>
       </c>
       <c r="E168" s="2">
@@ -4398,7 +4397,7 @@
       <c r="B169" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E169" s="2">
@@ -4412,7 +4411,7 @@
       <c r="B170" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>481</v>
       </c>
       <c r="E170" s="2">
@@ -4426,7 +4425,7 @@
       <c r="B171" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="2" t="s">
         <v>484</v>
       </c>
       <c r="E171" s="2">
@@ -4440,7 +4439,7 @@
       <c r="B172" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="2" t="s">
         <v>487</v>
       </c>
       <c r="E172" s="2">
@@ -4454,34 +4453,35 @@
       <c r="B173" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="2" t="s">
         <v>490</v>
       </c>
       <c r="E173" s="2">
         <v>173</v>
       </c>
     </row>
-    <row r="174" s="4" customFormat="1">
-      <c r="A174" s="4" t="s">
+    <row r="174" s="3" customFormat="1">
+      <c r="A174" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D174" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="3">
         <v>174</v>
       </c>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="K174" s="4"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="L174" s="3"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
@@ -4490,7 +4490,7 @@
       <c r="B175" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>497</v>
       </c>
       <c r="E175" s="2">
@@ -4504,7 +4504,7 @@
       <c r="B176" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="2" t="s">
         <v>500</v>
       </c>
       <c r="E176" s="2">
@@ -4518,7 +4518,7 @@
       <c r="B177" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="2" t="s">
         <v>503</v>
       </c>
       <c r="E177" s="2">
@@ -4532,7 +4532,7 @@
       <c r="B178" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>506</v>
       </c>
       <c r="E178" s="2">
@@ -4546,7 +4546,7 @@
       <c r="B179" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E179" s="2">
@@ -4560,7 +4560,7 @@
       <c r="B180" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E180" s="2">
@@ -4574,7 +4574,7 @@
       <c r="B181" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>515</v>
       </c>
       <c r="E181" s="2">
@@ -4588,7 +4588,7 @@
       <c r="B182" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E182" s="2">
@@ -4602,7 +4602,7 @@
       <c r="B183" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="2" t="s">
         <v>521</v>
       </c>
       <c r="E183" s="2">
@@ -4616,7 +4616,7 @@
       <c r="B184" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>524</v>
       </c>
       <c r="E184" s="2">
@@ -4630,7 +4630,7 @@
       <c r="B185" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>527</v>
       </c>
       <c r="E185" s="2">
@@ -4644,7 +4644,7 @@
       <c r="B186" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="2" t="s">
         <v>530</v>
       </c>
       <c r="E186" s="2">
@@ -4658,7 +4658,7 @@
       <c r="B187" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>533</v>
       </c>
       <c r="E187" s="2">
@@ -4672,7 +4672,7 @@
       <c r="B188" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>536</v>
       </c>
       <c r="E188" s="2">
@@ -4686,7 +4686,7 @@
       <c r="B189" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="2" t="s">
         <v>539</v>
       </c>
       <c r="E189" s="2">
@@ -4700,34 +4700,35 @@
       <c r="B190" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="2" t="s">
         <v>542</v>
       </c>
       <c r="E190" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="191" s="4" customFormat="1">
-      <c r="A191" s="4" t="s">
+    <row r="191" s="3" customFormat="1">
+      <c r="A191" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="D191" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191" s="3">
         <v>191</v>
       </c>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
-      <c r="K191" s="4"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="L191" s="3"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
@@ -4736,7 +4737,7 @@
       <c r="B192" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="2" t="s">
         <v>548</v>
       </c>
       <c r="E192" s="2">
@@ -4750,7 +4751,7 @@
       <c r="B193" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="2" t="s">
         <v>551</v>
       </c>
       <c r="E193" s="2">

--- a/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
@@ -1655,7 +1655,7 @@
 'Don't want to risk anything here?' I think they forget that we're putting our necks on the line. I suppose if the pay is good that's what we do.</t>
   </si>
   <si>
-    <t>Не хотят здесь рисковать?' Думаю, они забывают, что это мы рискуем шеями. Если нам хорошо заплатят, то, я думаю, мы этим занимаемся.</t>
+    <t>Не хотят здесь рисковать? Думаю, они забывают, что это мы рискуем шеями. Если нам хорошо заплатят, то, я думаю, мы этим занимаемся.</t>
   </si>
   <si>
     <t>SoloDuel_ProxyWar.objectiveList0.title</t>
@@ -1698,12 +1698,17 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1723,13 +1728,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2024,18 +2031,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L193"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="78.85546875" customWidth="1" style="2"/>
     <col min="4" max="4" width="13.28515625" customWidth="1" style="2"/>
-    <col min="5" max="11" width="9.140625" customWidth="1" style="2"/>
-    <col min="12" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="12" width="9.140625" customWidth="1" style="2"/>
+    <col min="13" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2045,7 +2052,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2">
@@ -2059,7 +2066,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
@@ -2073,7 +2080,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2">
@@ -2087,7 +2094,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2">
@@ -2101,7 +2108,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2">
@@ -2115,7 +2122,7 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2">
@@ -2129,7 +2136,7 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2">
@@ -2143,7 +2150,7 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2">
@@ -2157,7 +2164,7 @@
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="2">
@@ -2171,7 +2178,7 @@
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="2">
@@ -2185,7 +2192,7 @@
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2">
@@ -2199,7 +2206,7 @@
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="2">
@@ -2213,7 +2220,7 @@
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="2">
@@ -2227,7 +2234,7 @@
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2">
@@ -2241,7 +2248,7 @@
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="2">
@@ -2255,7 +2262,7 @@
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="2">
@@ -2269,7 +2276,7 @@
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2">
@@ -2283,7 +2290,7 @@
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2">
@@ -2297,7 +2304,7 @@
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="2">
@@ -2311,7 +2318,7 @@
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="2">
@@ -2325,7 +2332,7 @@
       <c r="B21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="2">
@@ -2339,7 +2346,7 @@
       <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="2">
@@ -2353,7 +2360,7 @@
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="2">
@@ -2367,7 +2374,7 @@
       <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="2">
@@ -2381,7 +2388,7 @@
       <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="2">
@@ -2395,7 +2402,7 @@
       <c r="B26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="2">
@@ -2409,7 +2416,7 @@
       <c r="B27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="2">
@@ -2423,7 +2430,7 @@
       <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E28" s="2">
@@ -2437,7 +2444,7 @@
       <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="2">
@@ -2451,7 +2458,7 @@
       <c r="B30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="2">
@@ -2465,7 +2472,7 @@
       <c r="B31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E31" s="2">
@@ -2479,7 +2486,7 @@
       <c r="B32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="2">
@@ -2493,7 +2500,7 @@
       <c r="B33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="2">
@@ -2507,7 +2514,7 @@
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E34" s="2">
@@ -2521,7 +2528,7 @@
       <c r="B35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E35" s="2">
@@ -2535,7 +2542,7 @@
       <c r="B36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E36" s="2">
@@ -2549,7 +2556,7 @@
       <c r="B37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E37" s="2">
@@ -2563,7 +2570,7 @@
       <c r="B38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E38" s="2">
@@ -2577,7 +2584,7 @@
       <c r="B39" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E39" s="2">
@@ -2591,7 +2598,7 @@
       <c r="B40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E40" s="2">
@@ -2605,7 +2612,7 @@
       <c r="B41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E41" s="2">
@@ -2619,7 +2626,7 @@
       <c r="B42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E42" s="2">
@@ -2633,7 +2640,7 @@
       <c r="B43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>124</v>
       </c>
       <c r="E43" s="2">
@@ -2647,7 +2654,7 @@
       <c r="B44" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E44" s="2">
@@ -2661,7 +2668,7 @@
       <c r="B45" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E45" s="2">
@@ -2675,7 +2682,7 @@
       <c r="B46" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E46" s="2">
@@ -2689,7 +2696,7 @@
       <c r="B47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E47" s="2">
@@ -2703,7 +2710,7 @@
       <c r="B48" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="2">
@@ -2717,7 +2724,7 @@
       <c r="B49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>142</v>
       </c>
       <c r="E49" s="2">
@@ -2731,7 +2738,7 @@
       <c r="B50" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E50" s="2">
@@ -2745,7 +2752,7 @@
       <c r="B51" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E51" s="2">
@@ -2759,7 +2766,7 @@
       <c r="B52" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E52" s="2">
@@ -2773,7 +2780,7 @@
       <c r="B53" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>154</v>
       </c>
       <c r="E53" s="2">
@@ -2787,7 +2794,7 @@
       <c r="B54" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E54" s="2">
@@ -2801,7 +2808,7 @@
       <c r="B55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E55" s="2">
@@ -2815,7 +2822,7 @@
       <c r="B56" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E56" s="2">
@@ -2829,7 +2836,7 @@
       <c r="B57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E57" s="2">
@@ -2843,7 +2850,7 @@
       <c r="B58" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E58" s="2">
@@ -2857,7 +2864,7 @@
       <c r="B59" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>169</v>
       </c>
       <c r="E59" s="2">
@@ -2871,7 +2878,7 @@
       <c r="B60" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>172</v>
       </c>
       <c r="E60" s="2">
@@ -2885,7 +2892,7 @@
       <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E61" s="2">
@@ -2899,7 +2906,7 @@
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E62" s="2">
@@ -2913,7 +2920,7 @@
       <c r="B63" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>178</v>
       </c>
       <c r="E63" s="2">
@@ -2927,7 +2934,7 @@
       <c r="B64" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E64" s="2">
@@ -2941,7 +2948,7 @@
       <c r="B65" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E65" s="2">
@@ -2955,7 +2962,7 @@
       <c r="B66" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>187</v>
       </c>
       <c r="E66" s="2">
@@ -2969,7 +2976,7 @@
       <c r="B67" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>190</v>
       </c>
       <c r="E67" s="2">
@@ -2983,7 +2990,7 @@
       <c r="B68" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E68" s="2">
@@ -2997,7 +3004,7 @@
       <c r="B69" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E69" s="2">
@@ -3011,7 +3018,7 @@
       <c r="B70" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="2">
@@ -3025,7 +3032,7 @@
       <c r="B71" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>200</v>
       </c>
       <c r="E71" s="2">
@@ -3039,7 +3046,7 @@
       <c r="B72" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E72" s="2">
@@ -3053,7 +3060,7 @@
       <c r="B73" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>206</v>
       </c>
       <c r="E73" s="2">
@@ -3067,7 +3074,7 @@
       <c r="B74" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>209</v>
       </c>
       <c r="E74" s="2">
@@ -3081,7 +3088,7 @@
       <c r="B75" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>212</v>
       </c>
       <c r="E75" s="2">
@@ -3095,7 +3102,7 @@
       <c r="B76" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E76" s="2">
@@ -3109,7 +3116,7 @@
       <c r="B77" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E77" s="2">
@@ -3123,7 +3130,7 @@
       <c r="B78" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>221</v>
       </c>
       <c r="E78" s="2">
@@ -3137,7 +3144,7 @@
       <c r="B79" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E79" s="2">
@@ -3151,7 +3158,7 @@
       <c r="B80" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>227</v>
       </c>
       <c r="E80" s="2">
@@ -3165,7 +3172,7 @@
       <c r="B81" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>230</v>
       </c>
       <c r="E81" s="2">
@@ -3179,7 +3186,7 @@
       <c r="B82" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E82" s="2">
@@ -3193,7 +3200,7 @@
       <c r="B83" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>236</v>
       </c>
       <c r="E83" s="2">
@@ -3207,7 +3214,7 @@
       <c r="B84" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>239</v>
       </c>
       <c r="E84" s="2">
@@ -3221,7 +3228,7 @@
       <c r="B85" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>242</v>
       </c>
       <c r="E85" s="2">
@@ -3235,7 +3242,7 @@
       <c r="B86" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E86" s="2">
@@ -3249,7 +3256,7 @@
       <c r="B87" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>248</v>
       </c>
       <c r="E87" s="2">
@@ -3263,7 +3270,7 @@
       <c r="B88" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E88" s="2">
@@ -3277,7 +3284,7 @@
       <c r="B89" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E89" s="2">
@@ -3291,7 +3298,7 @@
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E90" s="2">
@@ -3305,7 +3312,7 @@
       <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E91" s="2">
@@ -3319,7 +3326,7 @@
       <c r="B92" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>169</v>
       </c>
       <c r="E92" s="2">
@@ -3333,7 +3340,7 @@
       <c r="B93" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>172</v>
       </c>
       <c r="E93" s="2">
@@ -3347,7 +3354,7 @@
       <c r="B94" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E94" s="2">
@@ -3361,7 +3368,7 @@
       <c r="B95" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E95" s="2">
@@ -3375,7 +3382,7 @@
       <c r="B96" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E96" s="2">
@@ -3389,7 +3396,7 @@
       <c r="B97" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>266</v>
       </c>
       <c r="E97" s="2">
@@ -3403,7 +3410,7 @@
       <c r="B98" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>269</v>
       </c>
       <c r="E98" s="2">
@@ -3417,7 +3424,7 @@
       <c r="B99" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>272</v>
       </c>
       <c r="E99" s="2">
@@ -3431,7 +3438,7 @@
       <c r="B100" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>275</v>
       </c>
       <c r="E100" s="2">
@@ -3445,7 +3452,7 @@
       <c r="B101" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>278</v>
       </c>
       <c r="E101" s="2">
@@ -3459,7 +3466,7 @@
       <c r="B102" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>281</v>
       </c>
       <c r="E102" s="2">
@@ -3473,7 +3480,7 @@
       <c r="B103" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>284</v>
       </c>
       <c r="E103" s="2">
@@ -3487,7 +3494,7 @@
       <c r="B104" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>287</v>
       </c>
       <c r="E104" s="2">
@@ -3501,7 +3508,7 @@
       <c r="B105" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>290</v>
       </c>
       <c r="E105" s="2">
@@ -3515,7 +3522,7 @@
       <c r="B106" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>293</v>
       </c>
       <c r="E106" s="2">
@@ -3529,7 +3536,7 @@
       <c r="B107" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>296</v>
       </c>
       <c r="E107" s="2">
@@ -3543,7 +3550,7 @@
       <c r="B108" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>299</v>
       </c>
       <c r="E108" s="2">
@@ -3557,7 +3564,7 @@
       <c r="B109" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>302</v>
       </c>
       <c r="E109" s="2">
@@ -3571,7 +3578,7 @@
       <c r="B110" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>305</v>
       </c>
       <c r="E110" s="2">
@@ -3585,7 +3592,7 @@
       <c r="B111" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>308</v>
       </c>
       <c r="E111" s="2">
@@ -3599,7 +3606,7 @@
       <c r="B112" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>311</v>
       </c>
       <c r="E112" s="2">
@@ -3613,7 +3620,7 @@
       <c r="B113" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>314</v>
       </c>
       <c r="E113" s="2">
@@ -3627,7 +3634,7 @@
       <c r="B114" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>317</v>
       </c>
       <c r="E114" s="2">
@@ -3641,7 +3648,7 @@
       <c r="B115" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E115" s="2">
@@ -3655,7 +3662,7 @@
       <c r="B116" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>323</v>
       </c>
       <c r="E116" s="2">
@@ -3669,7 +3676,7 @@
       <c r="B117" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E117" s="2">
@@ -3683,7 +3690,7 @@
       <c r="B118" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>329</v>
       </c>
       <c r="E118" s="2">
@@ -3697,7 +3704,7 @@
       <c r="B119" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>332</v>
       </c>
       <c r="E119" s="2">
@@ -3711,7 +3718,7 @@
       <c r="B120" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>335</v>
       </c>
       <c r="E120" s="2">
@@ -3725,7 +3732,7 @@
       <c r="B121" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>338</v>
       </c>
       <c r="E121" s="2">
@@ -3739,7 +3746,7 @@
       <c r="B122" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>341</v>
       </c>
       <c r="E122" s="2">
@@ -3753,7 +3760,7 @@
       <c r="B123" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>344</v>
       </c>
       <c r="E123" s="2">
@@ -3767,7 +3774,7 @@
       <c r="B124" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>347</v>
       </c>
       <c r="E124" s="2">
@@ -3781,7 +3788,7 @@
       <c r="B125" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>350</v>
       </c>
       <c r="E125" s="2">
@@ -3795,7 +3802,7 @@
       <c r="B126" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>353</v>
       </c>
       <c r="E126" s="2">
@@ -3809,7 +3816,7 @@
       <c r="B127" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>356</v>
       </c>
       <c r="E127" s="2">
@@ -3823,7 +3830,7 @@
       <c r="B128" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>359</v>
       </c>
       <c r="E128" s="2">
@@ -3837,7 +3844,7 @@
       <c r="B129" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>362</v>
       </c>
       <c r="E129" s="2">
@@ -3851,7 +3858,7 @@
       <c r="B130" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="3" t="s">
         <v>365</v>
       </c>
       <c r="E130" s="2">
@@ -3865,7 +3872,7 @@
       <c r="B131" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="3" t="s">
         <v>368</v>
       </c>
       <c r="E131" s="2">
@@ -3879,7 +3886,7 @@
       <c r="B132" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="3" t="s">
         <v>371</v>
       </c>
       <c r="E132" s="2">
@@ -3893,7 +3900,7 @@
       <c r="B133" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="3" t="s">
         <v>374</v>
       </c>
       <c r="E133" s="2">
@@ -3907,7 +3914,7 @@
       <c r="B134" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>377</v>
       </c>
       <c r="E134" s="2">
@@ -3921,7 +3928,7 @@
       <c r="B135" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="3" t="s">
         <v>356</v>
       </c>
       <c r="E135" s="2">
@@ -3935,7 +3942,7 @@
       <c r="B136" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="3" t="s">
         <v>381</v>
       </c>
       <c r="E136" s="2">
@@ -3949,7 +3956,7 @@
       <c r="B137" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>384</v>
       </c>
       <c r="E137" s="2">
@@ -3963,7 +3970,7 @@
       <c r="B138" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="3" t="s">
         <v>387</v>
       </c>
       <c r="E138" s="2">
@@ -3977,7 +3984,7 @@
       <c r="B139" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>390</v>
       </c>
       <c r="E139" s="2">
@@ -3991,7 +3998,7 @@
       <c r="B140" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="3" t="s">
         <v>393</v>
       </c>
       <c r="E140" s="2">
@@ -4005,7 +4012,7 @@
       <c r="B141" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="3" t="s">
         <v>396</v>
       </c>
       <c r="E141" s="2">
@@ -4019,7 +4026,7 @@
       <c r="B142" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>399</v>
       </c>
       <c r="E142" s="2">
@@ -4033,7 +4040,7 @@
       <c r="B143" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>402</v>
       </c>
       <c r="E143" s="2">
@@ -4047,7 +4054,7 @@
       <c r="B144" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>405</v>
       </c>
       <c r="E144" s="2">
@@ -4061,7 +4068,7 @@
       <c r="B145" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>408</v>
       </c>
       <c r="E145" s="2">
@@ -4075,7 +4082,7 @@
       <c r="B146" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>411</v>
       </c>
       <c r="E146" s="2">
@@ -4089,7 +4096,7 @@
       <c r="B147" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>414</v>
       </c>
       <c r="E147" s="2">
@@ -4103,7 +4110,7 @@
       <c r="B148" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>417</v>
       </c>
       <c r="E148" s="2">
@@ -4117,7 +4124,7 @@
       <c r="B149" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>420</v>
       </c>
       <c r="E149" s="2">
@@ -4131,7 +4138,7 @@
       <c r="B150" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>423</v>
       </c>
       <c r="E150" s="2">
@@ -4145,7 +4152,7 @@
       <c r="B151" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="3" t="s">
         <v>426</v>
       </c>
       <c r="E151" s="2">
@@ -4159,7 +4166,7 @@
       <c r="B152" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>429</v>
       </c>
       <c r="E152" s="2">
@@ -4173,7 +4180,7 @@
       <c r="B153" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="3" t="s">
         <v>432</v>
       </c>
       <c r="E153" s="2">
@@ -4187,7 +4194,7 @@
       <c r="B154" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>411</v>
       </c>
       <c r="E154" s="2">
@@ -4201,7 +4208,7 @@
       <c r="B155" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="3" t="s">
         <v>436</v>
       </c>
       <c r="E155" s="2">
@@ -4215,7 +4222,7 @@
       <c r="B156" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>439</v>
       </c>
       <c r="E156" s="2">
@@ -4229,7 +4236,7 @@
       <c r="B157" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="3" t="s">
         <v>442</v>
       </c>
       <c r="E157" s="2">
@@ -4243,7 +4250,7 @@
       <c r="B158" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="3" t="s">
         <v>445</v>
       </c>
       <c r="E158" s="2">
@@ -4257,7 +4264,7 @@
       <c r="B159" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>448</v>
       </c>
       <c r="E159" s="2">
@@ -4271,7 +4278,7 @@
       <c r="B160" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="3" t="s">
         <v>451</v>
       </c>
       <c r="E160" s="2">
@@ -4285,7 +4292,7 @@
       <c r="B161" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>454</v>
       </c>
       <c r="E161" s="2">
@@ -4299,7 +4306,7 @@
       <c r="B162" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="3" t="s">
         <v>457</v>
       </c>
       <c r="E162" s="2">
@@ -4313,7 +4320,7 @@
       <c r="B163" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>460</v>
       </c>
       <c r="E163" s="2">
@@ -4327,7 +4334,7 @@
       <c r="B164" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="3" t="s">
         <v>463</v>
       </c>
       <c r="E164" s="2">
@@ -4341,7 +4348,7 @@
       <c r="B165" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="3" t="s">
         <v>466</v>
       </c>
       <c r="E165" s="2">
@@ -4355,7 +4362,7 @@
       <c r="B166" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="3" t="s">
         <v>469</v>
       </c>
       <c r="E166" s="2">
@@ -4369,7 +4376,7 @@
       <c r="B167" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="3" t="s">
         <v>472</v>
       </c>
       <c r="E167" s="2">
@@ -4383,7 +4390,7 @@
       <c r="B168" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="3" t="s">
         <v>475</v>
       </c>
       <c r="E168" s="2">
@@ -4397,7 +4404,7 @@
       <c r="B169" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="3" t="s">
         <v>478</v>
       </c>
       <c r="E169" s="2">
@@ -4411,7 +4418,7 @@
       <c r="B170" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>481</v>
       </c>
       <c r="E170" s="2">
@@ -4425,7 +4432,7 @@
       <c r="B171" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
         <v>484</v>
       </c>
       <c r="E171" s="2">
@@ -4439,7 +4446,7 @@
       <c r="B172" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="3" t="s">
         <v>487</v>
       </c>
       <c r="E172" s="2">
@@ -4453,35 +4460,30 @@
       <c r="B173" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="3" t="s">
         <v>490</v>
       </c>
       <c r="E173" s="2">
         <v>173</v>
       </c>
     </row>
-    <row r="174" s="3" customFormat="1">
-      <c r="A174" s="3" t="s">
+    <row r="174" s="4" customFormat="1">
+      <c r="A174" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="4">
         <v>174</v>
       </c>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="L174" s="3"/>
+      <c r="M174" s="7"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
@@ -4490,7 +4492,7 @@
       <c r="B175" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="3" t="s">
         <v>497</v>
       </c>
       <c r="E175" s="2">
@@ -4504,7 +4506,7 @@
       <c r="B176" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="3" t="s">
         <v>500</v>
       </c>
       <c r="E176" s="2">
@@ -4518,7 +4520,7 @@
       <c r="B177" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="3" t="s">
         <v>503</v>
       </c>
       <c r="E177" s="2">
@@ -4532,7 +4534,7 @@
       <c r="B178" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="3" t="s">
         <v>506</v>
       </c>
       <c r="E178" s="2">
@@ -4546,7 +4548,7 @@
       <c r="B179" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="3" t="s">
         <v>509</v>
       </c>
       <c r="E179" s="2">
@@ -4560,7 +4562,7 @@
       <c r="B180" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="3" t="s">
         <v>512</v>
       </c>
       <c r="E180" s="2">
@@ -4574,7 +4576,7 @@
       <c r="B181" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="3" t="s">
         <v>515</v>
       </c>
       <c r="E181" s="2">
@@ -4588,7 +4590,7 @@
       <c r="B182" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="3" t="s">
         <v>518</v>
       </c>
       <c r="E182" s="2">
@@ -4602,7 +4604,7 @@
       <c r="B183" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="3" t="s">
         <v>521</v>
       </c>
       <c r="E183" s="2">
@@ -4616,7 +4618,7 @@
       <c r="B184" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="3" t="s">
         <v>524</v>
       </c>
       <c r="E184" s="2">
@@ -4630,7 +4632,7 @@
       <c r="B185" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="3" t="s">
         <v>527</v>
       </c>
       <c r="E185" s="2">
@@ -4644,7 +4646,7 @@
       <c r="B186" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="3" t="s">
         <v>530</v>
       </c>
       <c r="E186" s="2">
@@ -4658,7 +4660,7 @@
       <c r="B187" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="3" t="s">
         <v>533</v>
       </c>
       <c r="E187" s="2">
@@ -4672,7 +4674,7 @@
       <c r="B188" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="3" t="s">
         <v>536</v>
       </c>
       <c r="E188" s="2">
@@ -4686,7 +4688,7 @@
       <c r="B189" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="3" t="s">
         <v>539</v>
       </c>
       <c r="E189" s="2">
@@ -4700,35 +4702,30 @@
       <c r="B190" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="3" t="s">
         <v>542</v>
       </c>
       <c r="E190" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="191" s="3" customFormat="1">
-      <c r="A191" s="3" t="s">
+    <row r="191" s="4" customFormat="1">
+      <c r="A191" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="4">
         <v>191</v>
       </c>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="L191" s="3"/>
+      <c r="M191" s="7"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
@@ -4737,7 +4734,7 @@
       <c r="B192" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="3" t="s">
         <v>548</v>
       </c>
       <c r="E192" s="2">
@@ -4751,7 +4748,7 @@
       <c r="B193" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="3" t="s">
         <v>551</v>
       </c>
       <c r="E193" s="2">
